--- a/epl_match_urls.xlsx
+++ b/epl_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="715">
   <si>
     <t>x</t>
   </si>
@@ -1055,6 +1055,39 @@
     <t>346</t>
   </si>
   <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/3a6836b4/Burnley-Manchester-City-August-11-2023-Premier-League</t>
   </si>
   <si>
@@ -2091,6 +2124,39 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/80bbb25e/Nottingham-Forest-Manchester-City-April-28-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6b489131/Chelsea-Tottenham-Hotspur-May-2-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/76d10c7d/Luton-Town-Everton-May-3-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/00bcfc31/Arsenal-Bournemouth-May-4-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/070bf86d/Burnley-Newcastle-United-May-4-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/91a2da3b/Sheffield-United-Nottingham-Forest-May-4-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a388fc69/Brentford-Fulham-May-4-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5a9032bf/Manchester-City-Wolverhampton-Wanderers-May-4-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5d5f6155/Brighton-and-Hove-Albion-Aston-Villa-May-5-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f8a0189a/Chelsea-West-Ham-United-May-5-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/08341569/Liverpool-Tottenham-Hotspur-May-5-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8c4bf9e7/Crystal-Palace-Manchester-United-May-6-2024-Premier-League</t>
   </si>
 </sst>
 </file>
@@ -2152,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3">
@@ -2160,7 +2226,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4">
@@ -2168,7 +2234,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5">
@@ -2176,7 +2242,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6">
@@ -2184,7 +2250,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7">
@@ -2192,7 +2258,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8">
@@ -2200,7 +2266,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9">
@@ -2208,7 +2274,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10">
@@ -2216,7 +2282,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11">
@@ -2224,7 +2290,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12">
@@ -2232,7 +2298,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13">
@@ -2240,7 +2306,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14">
@@ -2248,7 +2314,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15">
@@ -2256,7 +2322,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16">
@@ -2264,7 +2330,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17">
@@ -2272,7 +2338,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18">
@@ -2280,7 +2346,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19">
@@ -2288,7 +2354,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20">
@@ -2296,7 +2362,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21">
@@ -2304,7 +2370,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22">
@@ -2312,7 +2378,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2386,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24">
@@ -2328,7 +2394,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25">
@@ -2336,7 +2402,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26">
@@ -2344,7 +2410,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27">
@@ -2352,7 +2418,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28">
@@ -2360,7 +2426,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29">
@@ -2368,7 +2434,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30">
@@ -2376,7 +2442,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
     </row>
     <row r="31">
@@ -2384,7 +2450,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32">
@@ -2392,7 +2458,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33">
@@ -2400,7 +2466,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34">
@@ -2408,7 +2474,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
     </row>
     <row r="35">
@@ -2416,7 +2482,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36">
@@ -2424,7 +2490,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
     </row>
     <row r="37">
@@ -2432,7 +2498,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
     </row>
     <row r="38">
@@ -2440,7 +2506,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
     </row>
     <row r="39">
@@ -2448,7 +2514,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40">
@@ -2456,7 +2522,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41">
@@ -2464,7 +2530,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42">
@@ -2472,7 +2538,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43">
@@ -2480,7 +2546,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="44">
@@ -2488,7 +2554,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45">
@@ -2496,7 +2562,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46">
@@ -2504,7 +2570,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
     </row>
     <row r="47">
@@ -2512,7 +2578,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
     </row>
     <row r="48">
@@ -2520,7 +2586,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
     </row>
     <row r="49">
@@ -2528,7 +2594,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
     </row>
     <row r="50">
@@ -2536,7 +2602,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
     </row>
     <row r="51">
@@ -2544,7 +2610,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
     </row>
     <row r="52">
@@ -2552,7 +2618,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
     </row>
     <row r="53">
@@ -2560,7 +2626,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
     </row>
     <row r="54">
@@ -2568,7 +2634,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
     </row>
     <row r="55">
@@ -2576,7 +2642,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
     </row>
     <row r="56">
@@ -2584,7 +2650,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
     </row>
     <row r="57">
@@ -2592,7 +2658,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
     </row>
     <row r="58">
@@ -2600,7 +2666,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
     </row>
     <row r="59">
@@ -2608,7 +2674,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
     </row>
     <row r="60">
@@ -2616,7 +2682,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
     </row>
     <row r="61">
@@ -2624,7 +2690,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
     </row>
     <row r="62">
@@ -2632,7 +2698,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
     </row>
     <row r="63">
@@ -2640,7 +2706,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
     </row>
     <row r="64">
@@ -2648,7 +2714,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
     </row>
     <row r="65">
@@ -2656,7 +2722,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
     </row>
     <row r="66">
@@ -2664,7 +2730,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
     </row>
     <row r="67">
@@ -2672,7 +2738,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
     </row>
     <row r="68">
@@ -2680,7 +2746,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
     </row>
     <row r="69">
@@ -2688,7 +2754,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
     </row>
     <row r="70">
@@ -2696,7 +2762,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
     </row>
     <row r="71">
@@ -2704,7 +2770,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
     </row>
     <row r="72">
@@ -2712,7 +2778,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
     </row>
     <row r="73">
@@ -2720,7 +2786,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
     </row>
     <row r="74">
@@ -2728,7 +2794,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
     </row>
     <row r="75">
@@ -2736,7 +2802,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="76">
@@ -2744,7 +2810,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
     </row>
     <row r="77">
@@ -2752,7 +2818,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
     </row>
     <row r="78">
@@ -2760,7 +2826,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="79">
@@ -2768,7 +2834,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
     </row>
     <row r="80">
@@ -2776,7 +2842,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
     </row>
     <row r="81">
@@ -2784,7 +2850,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
     </row>
     <row r="82">
@@ -2792,7 +2858,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
     </row>
     <row r="83">
@@ -2800,7 +2866,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="84">
@@ -2808,7 +2874,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
     </row>
     <row r="85">
@@ -2816,7 +2882,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="86">
@@ -2824,7 +2890,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="87">
@@ -2832,7 +2898,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
     </row>
     <row r="88">
@@ -2840,7 +2906,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
     </row>
     <row r="89">
@@ -2848,7 +2914,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
     </row>
     <row r="90">
@@ -2856,7 +2922,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="91">
@@ -2864,7 +2930,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
     </row>
     <row r="92">
@@ -2872,7 +2938,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
     </row>
     <row r="93">
@@ -2880,7 +2946,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
     </row>
     <row r="94">
@@ -2888,7 +2954,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
     </row>
     <row r="95">
@@ -2896,7 +2962,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
     </row>
     <row r="96">
@@ -2904,7 +2970,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
     </row>
     <row r="97">
@@ -2912,7 +2978,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="98">
@@ -2920,7 +2986,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
     </row>
     <row r="99">
@@ -2928,7 +2994,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
     </row>
     <row r="100">
@@ -2936,7 +3002,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="101">
@@ -2944,7 +3010,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
     </row>
     <row r="102">
@@ -2952,7 +3018,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
     </row>
     <row r="103">
@@ -2960,7 +3026,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
     </row>
     <row r="104">
@@ -2968,7 +3034,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
     </row>
     <row r="105">
@@ -2976,7 +3042,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
     </row>
     <row r="106">
@@ -2984,7 +3050,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
     </row>
     <row r="107">
@@ -2992,7 +3058,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
     </row>
     <row r="108">
@@ -3000,7 +3066,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
     </row>
     <row r="109">
@@ -3008,7 +3074,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="110">
@@ -3016,7 +3082,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
     </row>
     <row r="111">
@@ -3024,7 +3090,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
     </row>
     <row r="112">
@@ -3032,7 +3098,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="113">
@@ -3040,7 +3106,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="114">
@@ -3048,7 +3114,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
     </row>
     <row r="115">
@@ -3056,7 +3122,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="116">
@@ -3064,7 +3130,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="117">
@@ -3072,7 +3138,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
     </row>
     <row r="118">
@@ -3080,7 +3146,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="119">
@@ -3088,7 +3154,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
     </row>
     <row r="120">
@@ -3096,7 +3162,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
     </row>
     <row r="121">
@@ -3104,7 +3170,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
     </row>
     <row r="122">
@@ -3112,7 +3178,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
     </row>
     <row r="123">
@@ -3120,7 +3186,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
     </row>
     <row r="124">
@@ -3128,7 +3194,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="125">
@@ -3136,7 +3202,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
     </row>
     <row r="126">
@@ -3144,7 +3210,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
     </row>
     <row r="127">
@@ -3152,7 +3218,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
     </row>
     <row r="128">
@@ -3160,7 +3226,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
     </row>
     <row r="129">
@@ -3168,7 +3234,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
     </row>
     <row r="130">
@@ -3176,7 +3242,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
     </row>
     <row r="131">
@@ -3184,7 +3250,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
     </row>
     <row r="132">
@@ -3192,7 +3258,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
     </row>
     <row r="133">
@@ -3200,7 +3266,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
     </row>
     <row r="134">
@@ -3208,7 +3274,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
     </row>
     <row r="135">
@@ -3216,7 +3282,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
     </row>
     <row r="136">
@@ -3224,7 +3290,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
     </row>
     <row r="137">
@@ -3232,7 +3298,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
     </row>
     <row r="138">
@@ -3240,7 +3306,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
     </row>
     <row r="139">
@@ -3248,7 +3314,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
     </row>
     <row r="140">
@@ -3256,7 +3322,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
     </row>
     <row r="141">
@@ -3264,7 +3330,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
     </row>
     <row r="142">
@@ -3272,7 +3338,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
     </row>
     <row r="143">
@@ -3280,7 +3346,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
     </row>
     <row r="144">
@@ -3288,7 +3354,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
     </row>
     <row r="145">
@@ -3296,7 +3362,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
     </row>
     <row r="146">
@@ -3304,7 +3370,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
     </row>
     <row r="147">
@@ -3312,7 +3378,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
     </row>
     <row r="148">
@@ -3320,7 +3386,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="149">
@@ -3328,7 +3394,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="150">
@@ -3336,7 +3402,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
     </row>
     <row r="151">
@@ -3344,7 +3410,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
     </row>
     <row r="152">
@@ -3352,7 +3418,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
     </row>
     <row r="153">
@@ -3360,7 +3426,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
     </row>
     <row r="154">
@@ -3368,7 +3434,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
     </row>
     <row r="155">
@@ -3376,7 +3442,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
     </row>
     <row r="156">
@@ -3384,7 +3450,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
     </row>
     <row r="157">
@@ -3392,7 +3458,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
     </row>
     <row r="158">
@@ -3400,7 +3466,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
     </row>
     <row r="159">
@@ -3408,7 +3474,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
     </row>
     <row r="160">
@@ -3416,7 +3482,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
     </row>
     <row r="161">
@@ -3424,7 +3490,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
     </row>
     <row r="162">
@@ -3432,7 +3498,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
     </row>
     <row r="163">
@@ -3440,7 +3506,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
     </row>
     <row r="164">
@@ -3448,7 +3514,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
     </row>
     <row r="165">
@@ -3456,7 +3522,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
     </row>
     <row r="166">
@@ -3464,7 +3530,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
     </row>
     <row r="167">
@@ -3472,7 +3538,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
     </row>
     <row r="168">
@@ -3480,7 +3546,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
     </row>
     <row r="169">
@@ -3488,7 +3554,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
     </row>
     <row r="170">
@@ -3496,7 +3562,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
     </row>
     <row r="171">
@@ -3504,7 +3570,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
     </row>
     <row r="172">
@@ -3512,7 +3578,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
     </row>
     <row r="173">
@@ -3520,7 +3586,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
     </row>
     <row r="174">
@@ -3528,7 +3594,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
     </row>
     <row r="175">
@@ -3536,7 +3602,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
     </row>
     <row r="176">
@@ -3544,7 +3610,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
     </row>
     <row r="177">
@@ -3552,7 +3618,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
     </row>
     <row r="178">
@@ -3560,7 +3626,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="179">
@@ -3568,7 +3634,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
     </row>
     <row r="180">
@@ -3576,7 +3642,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
     </row>
     <row r="181">
@@ -3584,7 +3650,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
     </row>
     <row r="182">
@@ -3592,7 +3658,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
     </row>
     <row r="183">
@@ -3600,7 +3666,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
     </row>
     <row r="184">
@@ -3608,7 +3674,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
     </row>
     <row r="185">
@@ -3616,7 +3682,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
     </row>
     <row r="186">
@@ -3624,7 +3690,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
     </row>
     <row r="187">
@@ -3632,7 +3698,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
     </row>
     <row r="188">
@@ -3640,7 +3706,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
     </row>
     <row r="189">
@@ -3648,7 +3714,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
     </row>
     <row r="190">
@@ -3656,7 +3722,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
     </row>
     <row r="191">
@@ -3664,7 +3730,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
     </row>
     <row r="192">
@@ -3672,7 +3738,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
     </row>
     <row r="193">
@@ -3680,7 +3746,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
     </row>
     <row r="194">
@@ -3688,7 +3754,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
     </row>
     <row r="195">
@@ -3696,7 +3762,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
     </row>
     <row r="196">
@@ -3704,7 +3770,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
     </row>
     <row r="197">
@@ -3712,7 +3778,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
     </row>
     <row r="198">
@@ -3720,7 +3786,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
     </row>
     <row r="199">
@@ -3728,7 +3794,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
     </row>
     <row r="200">
@@ -3736,7 +3802,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
     </row>
     <row r="201">
@@ -3744,7 +3810,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
     </row>
     <row r="202">
@@ -3752,7 +3818,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
     </row>
     <row r="203">
@@ -3760,7 +3826,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
     </row>
     <row r="204">
@@ -3768,7 +3834,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
     </row>
     <row r="205">
@@ -3776,7 +3842,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
     </row>
     <row r="206">
@@ -3784,7 +3850,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
     </row>
     <row r="207">
@@ -3792,7 +3858,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
     </row>
     <row r="208">
@@ -3800,7 +3866,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="209">
@@ -3808,7 +3874,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
     </row>
     <row r="210">
@@ -3816,7 +3882,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
     </row>
     <row r="211">
@@ -3824,7 +3890,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
     </row>
     <row r="212">
@@ -3832,7 +3898,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
     </row>
     <row r="213">
@@ -3840,7 +3906,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
     </row>
     <row r="214">
@@ -3848,7 +3914,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
     </row>
     <row r="215">
@@ -3856,7 +3922,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
     </row>
     <row r="216">
@@ -3864,7 +3930,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
     </row>
     <row r="217">
@@ -3872,7 +3938,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
     </row>
     <row r="218">
@@ -3880,7 +3946,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
     </row>
     <row r="219">
@@ -3888,7 +3954,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
     </row>
     <row r="220">
@@ -3896,7 +3962,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
     </row>
     <row r="221">
@@ -3904,7 +3970,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
     </row>
     <row r="222">
@@ -3912,7 +3978,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
     </row>
     <row r="223">
@@ -3920,7 +3986,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
     </row>
     <row r="224">
@@ -3928,7 +3994,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
     </row>
     <row r="225">
@@ -3936,7 +4002,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
     </row>
     <row r="226">
@@ -3944,7 +4010,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
     </row>
     <row r="227">
@@ -3952,7 +4018,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
     </row>
     <row r="228">
@@ -3960,7 +4026,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
     </row>
     <row r="229">
@@ -3968,7 +4034,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
     </row>
     <row r="230">
@@ -3976,7 +4042,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
     </row>
     <row r="231">
@@ -3984,7 +4050,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
     </row>
     <row r="232">
@@ -3992,7 +4058,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
     </row>
     <row r="233">
@@ -4000,7 +4066,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
     </row>
     <row r="234">
@@ -4008,7 +4074,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
     </row>
     <row r="235">
@@ -4016,7 +4082,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
     </row>
     <row r="236">
@@ -4024,7 +4090,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
     </row>
     <row r="237">
@@ -4032,7 +4098,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
     </row>
     <row r="238">
@@ -4040,7 +4106,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
     </row>
     <row r="239">
@@ -4048,7 +4114,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
     </row>
     <row r="240">
@@ -4056,7 +4122,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
     </row>
     <row r="241">
@@ -4064,7 +4130,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
     </row>
     <row r="242">
@@ -4072,7 +4138,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
     </row>
     <row r="243">
@@ -4080,7 +4146,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
     </row>
     <row r="244">
@@ -4088,7 +4154,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
     </row>
     <row r="245">
@@ -4096,7 +4162,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
     </row>
     <row r="246">
@@ -4104,7 +4170,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
     </row>
     <row r="247">
@@ -4112,7 +4178,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
     </row>
     <row r="248">
@@ -4120,7 +4186,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
     </row>
     <row r="249">
@@ -4128,7 +4194,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
     </row>
     <row r="250">
@@ -4136,7 +4202,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
     </row>
     <row r="251">
@@ -4144,7 +4210,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
     </row>
     <row r="252">
@@ -4152,7 +4218,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
     </row>
     <row r="253">
@@ -4160,7 +4226,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
     </row>
     <row r="254">
@@ -4168,7 +4234,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
     </row>
     <row r="255">
@@ -4176,7 +4242,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
     </row>
     <row r="256">
@@ -4184,7 +4250,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
     </row>
     <row r="257">
@@ -4192,7 +4258,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
     </row>
     <row r="258">
@@ -4200,7 +4266,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
     </row>
     <row r="259">
@@ -4208,7 +4274,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="260">
@@ -4216,7 +4282,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="261">
@@ -4224,7 +4290,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="262">
@@ -4232,7 +4298,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="263">
@@ -4240,7 +4306,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
     </row>
     <row r="264">
@@ -4248,7 +4314,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
     </row>
     <row r="265">
@@ -4256,7 +4322,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
     </row>
     <row r="266">
@@ -4264,7 +4330,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
     </row>
     <row r="267">
@@ -4272,7 +4338,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
     </row>
     <row r="268">
@@ -4280,7 +4346,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
     </row>
     <row r="269">
@@ -4288,7 +4354,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="270">
@@ -4296,7 +4362,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
     </row>
     <row r="271">
@@ -4304,7 +4370,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
     </row>
     <row r="272">
@@ -4312,7 +4378,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
     </row>
     <row r="273">
@@ -4320,7 +4386,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
     </row>
     <row r="274">
@@ -4328,7 +4394,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
     </row>
     <row r="275">
@@ -4336,7 +4402,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="276">
@@ -4344,7 +4410,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
     </row>
     <row r="277">
@@ -4352,7 +4418,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
     </row>
     <row r="278">
@@ -4360,7 +4426,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
     </row>
     <row r="279">
@@ -4368,7 +4434,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
     </row>
     <row r="280">
@@ -4376,7 +4442,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
     </row>
     <row r="281">
@@ -4384,7 +4450,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
     </row>
     <row r="282">
@@ -4392,7 +4458,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
     </row>
     <row r="283">
@@ -4400,7 +4466,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
     </row>
     <row r="284">
@@ -4408,7 +4474,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
     </row>
     <row r="285">
@@ -4416,7 +4482,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
     </row>
     <row r="286">
@@ -4424,7 +4490,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
     </row>
     <row r="287">
@@ -4432,7 +4498,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
     </row>
     <row r="288">
@@ -4440,7 +4506,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
     </row>
     <row r="289">
@@ -4448,7 +4514,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
     </row>
     <row r="290">
@@ -4456,7 +4522,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
     </row>
     <row r="291">
@@ -4464,7 +4530,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
     </row>
     <row r="292">
@@ -4472,7 +4538,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
     </row>
     <row r="293">
@@ -4480,7 +4546,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
     </row>
     <row r="294">
@@ -4488,7 +4554,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
     </row>
     <row r="295">
@@ -4496,7 +4562,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
     </row>
     <row r="296">
@@ -4504,7 +4570,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
     </row>
     <row r="297">
@@ -4512,7 +4578,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
     </row>
     <row r="298">
@@ -4520,7 +4586,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
     </row>
     <row r="299">
@@ -4528,7 +4594,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
     </row>
     <row r="300">
@@ -4536,7 +4602,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
     </row>
     <row r="301">
@@ -4544,7 +4610,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
     </row>
     <row r="302">
@@ -4552,7 +4618,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
     </row>
     <row r="303">
@@ -4560,7 +4626,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
     </row>
     <row r="304">
@@ -4568,7 +4634,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
     </row>
     <row r="305">
@@ -4576,7 +4642,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
     </row>
     <row r="306">
@@ -4584,7 +4650,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
     </row>
     <row r="307">
@@ -4592,7 +4658,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
     </row>
     <row r="308">
@@ -4600,7 +4666,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
     </row>
     <row r="309">
@@ -4608,7 +4674,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
     </row>
     <row r="310">
@@ -4616,7 +4682,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
     </row>
     <row r="311">
@@ -4624,7 +4690,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
     </row>
     <row r="312">
@@ -4632,7 +4698,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
     </row>
     <row r="313">
@@ -4640,7 +4706,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
     </row>
     <row r="314">
@@ -4648,7 +4714,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
     </row>
     <row r="315">
@@ -4656,7 +4722,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
     </row>
     <row r="316">
@@ -4664,7 +4730,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>661</v>
+        <v>672</v>
       </c>
     </row>
     <row r="317">
@@ -4672,7 +4738,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
     </row>
     <row r="318">
@@ -4680,7 +4746,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
     </row>
     <row r="319">
@@ -4688,7 +4754,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
     </row>
     <row r="320">
@@ -4696,7 +4762,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
     </row>
     <row r="321">
@@ -4704,7 +4770,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
     </row>
     <row r="322">
@@ -4712,7 +4778,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
     </row>
     <row r="323">
@@ -4720,7 +4786,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
     </row>
     <row r="324">
@@ -4728,7 +4794,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
     </row>
     <row r="325">
@@ -4736,7 +4802,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
     </row>
     <row r="326">
@@ -4744,7 +4810,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
     </row>
     <row r="327">
@@ -4752,7 +4818,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
     </row>
     <row r="328">
@@ -4760,7 +4826,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
     </row>
     <row r="329">
@@ -4768,7 +4834,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
     </row>
     <row r="330">
@@ -4776,7 +4842,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>675</v>
+        <v>686</v>
       </c>
     </row>
     <row r="331">
@@ -4784,7 +4850,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
     </row>
     <row r="332">
@@ -4792,7 +4858,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="333">
@@ -4800,7 +4866,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
     </row>
     <row r="334">
@@ -4808,7 +4874,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
     </row>
     <row r="335">
@@ -4816,7 +4882,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
     </row>
     <row r="336">
@@ -4824,7 +4890,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
     </row>
     <row r="337">
@@ -4832,7 +4898,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
     </row>
     <row r="338">
@@ -4840,7 +4906,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>683</v>
+        <v>694</v>
       </c>
     </row>
     <row r="339">
@@ -4848,7 +4914,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
     </row>
     <row r="340">
@@ -4856,7 +4922,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
     </row>
     <row r="341">
@@ -4864,7 +4930,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
     </row>
     <row r="342">
@@ -4872,7 +4938,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>687</v>
+        <v>698</v>
       </c>
     </row>
     <row r="343">
@@ -4880,7 +4946,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
     </row>
     <row r="344">
@@ -4888,7 +4954,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
     </row>
     <row r="345">
@@ -4896,7 +4962,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
     </row>
     <row r="346">
@@ -4904,7 +4970,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
     </row>
     <row r="347">
@@ -4912,7 +4978,95 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>692</v>
+        <v>703</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>347</v>
+      </c>
+      <c r="B348" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>348</v>
+      </c>
+      <c r="B349" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>349</v>
+      </c>
+      <c r="B350" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>350</v>
+      </c>
+      <c r="B351" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>351</v>
+      </c>
+      <c r="B352" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>352</v>
+      </c>
+      <c r="B353" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>353</v>
+      </c>
+      <c r="B354" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>354</v>
+      </c>
+      <c r="B355" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>355</v>
+      </c>
+      <c r="B356" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>356</v>
+      </c>
+      <c r="B357" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>357</v>
+      </c>
+      <c r="B358" t="s">
+        <v>714</v>
       </c>
     </row>
   </sheetData>

--- a/epl_match_urls.xlsx
+++ b/epl_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="761">
   <si>
     <t>x</t>
   </si>
@@ -1088,6 +1088,75 @@
     <t>357</t>
   </si>
   <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>371</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>374</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/3a6836b4/Burnley-Manchester-City-August-11-2023-Premier-League</t>
   </si>
   <si>
@@ -2157,6 +2226,75 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/8c4bf9e7/Crystal-Palace-Manchester-United-May-6-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4e211d29/Fulham-Manchester-City-May-11-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/16d5b6aa/Wolverhampton-Wanderers-Crystal-Palace-May-11-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/17e9dbbf/West-Ham-United-Luton-Town-May-11-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/45c36efd/Tottenham-Hotspur-Burnley-May-11-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/482e6ce4/Everton-Sheffield-United-May-11-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6dbd7d72/Newcastle-United-Brighton-and-Hove-Albion-May-11-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e7b6ebb6/Bournemouth-Brentford-May-11-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/384547b8/Nottingham-Forest-Chelsea-May-11-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ab9827f2/Manchester-United-Arsenal-May-12-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/72c0709d/Aston-Villa-Liverpool-May-13-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2ba17e6d/Tottenham-Hotspur-Manchester-City-May-14-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b42b7907/Brighton-and-Hove-Albion-Chelsea-May-15-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e43e8597/Manchester-United-Newcastle-United-May-15-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0fde9d70/Luton-Town-Fulham-May-19-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/273a89b4/Sheffield-United-Tottenham-Hotspur-May-19-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/29335211/Manchester-City-West-Ham-United-May-19-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3e33bd98/Arsenal-Everton-May-19-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/47ecdc19/Brighton-and-Hove-Albion-Manchester-United-May-19-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/546e1a3d/Brentford-Newcastle-United-May-19-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7c034003/Chelsea-Bournemouth-May-19-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c975c7a6/Crystal-Palace-Aston-Villa-May-19-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d4823ed5/Liverpool-Wolverhampton-Wanderers-May-19-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/dafb05fe/Burnley-Nottingham-Forest-May-19-2024-Premier-League</t>
   </si>
 </sst>
 </file>
@@ -2218,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3">
@@ -2226,7 +2364,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4">
@@ -2234,7 +2372,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5">
@@ -2242,7 +2380,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6">
@@ -2250,7 +2388,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7">
@@ -2258,7 +2396,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8">
@@ -2266,7 +2404,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9">
@@ -2274,7 +2412,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10">
@@ -2282,7 +2420,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11">
@@ -2290,7 +2428,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12">
@@ -2298,7 +2436,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13">
@@ -2306,7 +2444,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14">
@@ -2314,7 +2452,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15">
@@ -2322,7 +2460,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16">
@@ -2330,7 +2468,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17">
@@ -2338,7 +2476,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18">
@@ -2346,7 +2484,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
     </row>
     <row r="19">
@@ -2354,7 +2492,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20">
@@ -2362,7 +2500,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21">
@@ -2370,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22">
@@ -2378,7 +2516,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23">
@@ -2386,7 +2524,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2532,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25">
@@ -2402,7 +2540,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
     </row>
     <row r="26">
@@ -2410,7 +2548,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
     </row>
     <row r="27">
@@ -2418,7 +2556,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
     </row>
     <row r="28">
@@ -2426,7 +2564,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
     </row>
     <row r="29">
@@ -2434,7 +2572,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
     </row>
     <row r="30">
@@ -2442,7 +2580,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
     </row>
     <row r="31">
@@ -2450,7 +2588,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
     </row>
     <row r="32">
@@ -2458,7 +2596,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
     </row>
     <row r="33">
@@ -2466,7 +2604,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
     </row>
     <row r="34">
@@ -2474,7 +2612,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
     </row>
     <row r="35">
@@ -2482,7 +2620,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
     </row>
     <row r="36">
@@ -2490,7 +2628,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
     </row>
     <row r="37">
@@ -2498,7 +2636,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
     </row>
     <row r="38">
@@ -2506,7 +2644,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
     </row>
     <row r="39">
@@ -2514,7 +2652,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
     </row>
     <row r="40">
@@ -2522,7 +2660,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
     </row>
     <row r="41">
@@ -2530,7 +2668,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
     </row>
     <row r="42">
@@ -2538,7 +2676,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
     </row>
     <row r="43">
@@ -2546,7 +2684,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
     </row>
     <row r="44">
@@ -2554,7 +2692,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
     </row>
     <row r="45">
@@ -2562,7 +2700,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
     </row>
     <row r="46">
@@ -2570,7 +2708,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
     </row>
     <row r="47">
@@ -2578,7 +2716,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
     </row>
     <row r="48">
@@ -2586,7 +2724,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
     </row>
     <row r="49">
@@ -2594,7 +2732,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
     </row>
     <row r="50">
@@ -2602,7 +2740,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>406</v>
+        <v>429</v>
       </c>
     </row>
     <row r="51">
@@ -2610,7 +2748,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
     </row>
     <row r="52">
@@ -2618,7 +2756,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
     </row>
     <row r="53">
@@ -2626,7 +2764,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
     </row>
     <row r="54">
@@ -2634,7 +2772,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
     </row>
     <row r="55">
@@ -2642,7 +2780,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>411</v>
+        <v>434</v>
       </c>
     </row>
     <row r="56">
@@ -2650,7 +2788,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
     </row>
     <row r="57">
@@ -2658,7 +2796,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
     </row>
     <row r="58">
@@ -2666,7 +2804,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
     </row>
     <row r="59">
@@ -2674,7 +2812,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
     </row>
     <row r="60">
@@ -2682,7 +2820,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
     </row>
     <row r="61">
@@ -2690,7 +2828,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
     </row>
     <row r="62">
@@ -2698,7 +2836,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
     </row>
     <row r="63">
@@ -2706,7 +2844,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>419</v>
+        <v>442</v>
       </c>
     </row>
     <row r="64">
@@ -2714,7 +2852,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
     </row>
     <row r="65">
@@ -2722,7 +2860,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
     </row>
     <row r="66">
@@ -2730,7 +2868,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
     </row>
     <row r="67">
@@ -2738,7 +2876,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
     </row>
     <row r="68">
@@ -2746,7 +2884,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
     </row>
     <row r="69">
@@ -2754,7 +2892,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
     </row>
     <row r="70">
@@ -2762,7 +2900,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
     </row>
     <row r="71">
@@ -2770,7 +2908,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
     </row>
     <row r="72">
@@ -2778,7 +2916,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
     </row>
     <row r="73">
@@ -2786,7 +2924,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
     </row>
     <row r="74">
@@ -2794,7 +2932,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
     </row>
     <row r="75">
@@ -2802,7 +2940,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
     </row>
     <row r="76">
@@ -2810,7 +2948,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
     </row>
     <row r="77">
@@ -2818,7 +2956,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
     </row>
     <row r="78">
@@ -2826,7 +2964,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
     </row>
     <row r="79">
@@ -2834,7 +2972,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
     </row>
     <row r="80">
@@ -2842,7 +2980,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
     </row>
     <row r="81">
@@ -2850,7 +2988,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
     </row>
     <row r="82">
@@ -2858,7 +2996,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
     </row>
     <row r="83">
@@ -2866,7 +3004,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
     </row>
     <row r="84">
@@ -2874,7 +3012,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
     </row>
     <row r="85">
@@ -2882,7 +3020,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
     </row>
     <row r="86">
@@ -2890,7 +3028,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
     </row>
     <row r="87">
@@ -2898,7 +3036,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
     </row>
     <row r="88">
@@ -2906,7 +3044,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="89">
@@ -2914,7 +3052,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
     </row>
     <row r="90">
@@ -2922,7 +3060,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
     </row>
     <row r="91">
@@ -2930,7 +3068,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
     </row>
     <row r="92">
@@ -2938,7 +3076,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +3084,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
     </row>
     <row r="94">
@@ -2954,7 +3092,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
     </row>
     <row r="95">
@@ -2962,7 +3100,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
     </row>
     <row r="96">
@@ -2970,7 +3108,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
     </row>
     <row r="97">
@@ -2978,7 +3116,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
     </row>
     <row r="98">
@@ -2986,7 +3124,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
     </row>
     <row r="99">
@@ -2994,7 +3132,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
     </row>
     <row r="100">
@@ -3002,7 +3140,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
     </row>
     <row r="101">
@@ -3010,7 +3148,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
     </row>
     <row r="102">
@@ -3018,7 +3156,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
     </row>
     <row r="103">
@@ -3026,7 +3164,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
     </row>
     <row r="104">
@@ -3034,7 +3172,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
     </row>
     <row r="105">
@@ -3042,7 +3180,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
     </row>
     <row r="106">
@@ -3050,7 +3188,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
     </row>
     <row r="107">
@@ -3058,7 +3196,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
     </row>
     <row r="108">
@@ -3066,7 +3204,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
     </row>
     <row r="109">
@@ -3074,7 +3212,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
     </row>
     <row r="110">
@@ -3082,7 +3220,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
     </row>
     <row r="111">
@@ -3090,7 +3228,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
     </row>
     <row r="112">
@@ -3098,7 +3236,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>468</v>
+        <v>491</v>
       </c>
     </row>
     <row r="113">
@@ -3106,7 +3244,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
     </row>
     <row r="114">
@@ -3114,7 +3252,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
     </row>
     <row r="115">
@@ -3122,7 +3260,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
     </row>
     <row r="116">
@@ -3130,7 +3268,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
     </row>
     <row r="117">
@@ -3138,7 +3276,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
     </row>
     <row r="118">
@@ -3146,7 +3284,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
     </row>
     <row r="119">
@@ -3154,7 +3292,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>475</v>
+        <v>498</v>
       </c>
     </row>
     <row r="120">
@@ -3162,7 +3300,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>476</v>
+        <v>499</v>
       </c>
     </row>
     <row r="121">
@@ -3170,7 +3308,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>477</v>
+        <v>500</v>
       </c>
     </row>
     <row r="122">
@@ -3178,7 +3316,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
     </row>
     <row r="123">
@@ -3186,7 +3324,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>479</v>
+        <v>502</v>
       </c>
     </row>
     <row r="124">
@@ -3194,7 +3332,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
     </row>
     <row r="125">
@@ -3202,7 +3340,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
     </row>
     <row r="126">
@@ -3210,7 +3348,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>482</v>
+        <v>505</v>
       </c>
     </row>
     <row r="127">
@@ -3218,7 +3356,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
     </row>
     <row r="128">
@@ -3226,7 +3364,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
     </row>
     <row r="129">
@@ -3234,7 +3372,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
     </row>
     <row r="130">
@@ -3242,7 +3380,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
     </row>
     <row r="131">
@@ -3250,7 +3388,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
     </row>
     <row r="132">
@@ -3258,7 +3396,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
     </row>
     <row r="133">
@@ -3266,7 +3404,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
     </row>
     <row r="134">
@@ -3274,7 +3412,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>490</v>
+        <v>513</v>
       </c>
     </row>
     <row r="135">
@@ -3282,7 +3420,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
     </row>
     <row r="136">
@@ -3290,7 +3428,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>492</v>
+        <v>515</v>
       </c>
     </row>
     <row r="137">
@@ -3298,7 +3436,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>493</v>
+        <v>516</v>
       </c>
     </row>
     <row r="138">
@@ -3306,7 +3444,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>494</v>
+        <v>517</v>
       </c>
     </row>
     <row r="139">
@@ -3314,7 +3452,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>495</v>
+        <v>518</v>
       </c>
     </row>
     <row r="140">
@@ -3322,7 +3460,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>496</v>
+        <v>519</v>
       </c>
     </row>
     <row r="141">
@@ -3330,7 +3468,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>497</v>
+        <v>520</v>
       </c>
     </row>
     <row r="142">
@@ -3338,7 +3476,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>498</v>
+        <v>521</v>
       </c>
     </row>
     <row r="143">
@@ -3346,7 +3484,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>499</v>
+        <v>522</v>
       </c>
     </row>
     <row r="144">
@@ -3354,7 +3492,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>500</v>
+        <v>523</v>
       </c>
     </row>
     <row r="145">
@@ -3362,7 +3500,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
     </row>
     <row r="146">
@@ -3370,7 +3508,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>502</v>
+        <v>525</v>
       </c>
     </row>
     <row r="147">
@@ -3378,7 +3516,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>503</v>
+        <v>526</v>
       </c>
     </row>
     <row r="148">
@@ -3386,7 +3524,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
     </row>
     <row r="149">
@@ -3394,7 +3532,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
     </row>
     <row r="150">
@@ -3402,7 +3540,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
     </row>
     <row r="151">
@@ -3410,7 +3548,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
     </row>
     <row r="152">
@@ -3418,7 +3556,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
     </row>
     <row r="153">
@@ -3426,7 +3564,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
     </row>
     <row r="154">
@@ -3434,7 +3572,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
     </row>
     <row r="155">
@@ -3442,7 +3580,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
     </row>
     <row r="156">
@@ -3450,7 +3588,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
     </row>
     <row r="157">
@@ -3458,7 +3596,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>513</v>
+        <v>536</v>
       </c>
     </row>
     <row r="158">
@@ -3466,7 +3604,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
     </row>
     <row r="159">
@@ -3474,7 +3612,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>515</v>
+        <v>538</v>
       </c>
     </row>
     <row r="160">
@@ -3482,7 +3620,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
     </row>
     <row r="161">
@@ -3490,7 +3628,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
     </row>
     <row r="162">
@@ -3498,7 +3636,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
     </row>
     <row r="163">
@@ -3506,7 +3644,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
     </row>
     <row r="164">
@@ -3514,7 +3652,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
     </row>
     <row r="165">
@@ -3522,7 +3660,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
     </row>
     <row r="166">
@@ -3530,7 +3668,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
     </row>
     <row r="167">
@@ -3538,7 +3676,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
     </row>
     <row r="168">
@@ -3546,7 +3684,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>524</v>
+        <v>547</v>
       </c>
     </row>
     <row r="169">
@@ -3554,7 +3692,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
     </row>
     <row r="170">
@@ -3562,7 +3700,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
     </row>
     <row r="171">
@@ -3570,7 +3708,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>527</v>
+        <v>550</v>
       </c>
     </row>
     <row r="172">
@@ -3578,7 +3716,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
     </row>
     <row r="173">
@@ -3586,7 +3724,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
     </row>
     <row r="174">
@@ -3594,7 +3732,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>530</v>
+        <v>553</v>
       </c>
     </row>
     <row r="175">
@@ -3602,7 +3740,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>531</v>
+        <v>554</v>
       </c>
     </row>
     <row r="176">
@@ -3610,7 +3748,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>532</v>
+        <v>555</v>
       </c>
     </row>
     <row r="177">
@@ -3618,7 +3756,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>533</v>
+        <v>556</v>
       </c>
     </row>
     <row r="178">
@@ -3626,7 +3764,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>534</v>
+        <v>557</v>
       </c>
     </row>
     <row r="179">
@@ -3634,7 +3772,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>535</v>
+        <v>558</v>
       </c>
     </row>
     <row r="180">
@@ -3642,7 +3780,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>536</v>
+        <v>559</v>
       </c>
     </row>
     <row r="181">
@@ -3650,7 +3788,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>537</v>
+        <v>560</v>
       </c>
     </row>
     <row r="182">
@@ -3658,7 +3796,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>538</v>
+        <v>561</v>
       </c>
     </row>
     <row r="183">
@@ -3666,7 +3804,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>539</v>
+        <v>562</v>
       </c>
     </row>
     <row r="184">
@@ -3674,7 +3812,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>540</v>
+        <v>563</v>
       </c>
     </row>
     <row r="185">
@@ -3682,7 +3820,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>541</v>
+        <v>564</v>
       </c>
     </row>
     <row r="186">
@@ -3690,7 +3828,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>542</v>
+        <v>565</v>
       </c>
     </row>
     <row r="187">
@@ -3698,7 +3836,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>543</v>
+        <v>566</v>
       </c>
     </row>
     <row r="188">
@@ -3706,7 +3844,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>544</v>
+        <v>567</v>
       </c>
     </row>
     <row r="189">
@@ -3714,7 +3852,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>545</v>
+        <v>568</v>
       </c>
     </row>
     <row r="190">
@@ -3722,7 +3860,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>546</v>
+        <v>569</v>
       </c>
     </row>
     <row r="191">
@@ -3730,7 +3868,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>547</v>
+        <v>570</v>
       </c>
     </row>
     <row r="192">
@@ -3738,7 +3876,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
     </row>
     <row r="193">
@@ -3746,7 +3884,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>549</v>
+        <v>572</v>
       </c>
     </row>
     <row r="194">
@@ -3754,7 +3892,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>550</v>
+        <v>573</v>
       </c>
     </row>
     <row r="195">
@@ -3762,7 +3900,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>551</v>
+        <v>574</v>
       </c>
     </row>
     <row r="196">
@@ -3770,7 +3908,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>552</v>
+        <v>575</v>
       </c>
     </row>
     <row r="197">
@@ -3778,7 +3916,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>553</v>
+        <v>576</v>
       </c>
     </row>
     <row r="198">
@@ -3786,7 +3924,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>554</v>
+        <v>577</v>
       </c>
     </row>
     <row r="199">
@@ -3794,7 +3932,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>555</v>
+        <v>578</v>
       </c>
     </row>
     <row r="200">
@@ -3802,7 +3940,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>556</v>
+        <v>579</v>
       </c>
     </row>
     <row r="201">
@@ -3810,7 +3948,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>557</v>
+        <v>580</v>
       </c>
     </row>
     <row r="202">
@@ -3818,7 +3956,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>558</v>
+        <v>581</v>
       </c>
     </row>
     <row r="203">
@@ -3826,7 +3964,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>559</v>
+        <v>582</v>
       </c>
     </row>
     <row r="204">
@@ -3834,7 +3972,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
     </row>
     <row r="205">
@@ -3842,7 +3980,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>561</v>
+        <v>584</v>
       </c>
     </row>
     <row r="206">
@@ -3850,7 +3988,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>562</v>
+        <v>585</v>
       </c>
     </row>
     <row r="207">
@@ -3858,7 +3996,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>563</v>
+        <v>586</v>
       </c>
     </row>
     <row r="208">
@@ -3866,7 +4004,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>564</v>
+        <v>587</v>
       </c>
     </row>
     <row r="209">
@@ -3874,7 +4012,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>565</v>
+        <v>588</v>
       </c>
     </row>
     <row r="210">
@@ -3882,7 +4020,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>566</v>
+        <v>589</v>
       </c>
     </row>
     <row r="211">
@@ -3890,7 +4028,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>567</v>
+        <v>590</v>
       </c>
     </row>
     <row r="212">
@@ -3898,7 +4036,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>568</v>
+        <v>591</v>
       </c>
     </row>
     <row r="213">
@@ -3906,7 +4044,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>569</v>
+        <v>592</v>
       </c>
     </row>
     <row r="214">
@@ -3914,7 +4052,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
     </row>
     <row r="215">
@@ -3922,7 +4060,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>571</v>
+        <v>594</v>
       </c>
     </row>
     <row r="216">
@@ -3930,7 +4068,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>572</v>
+        <v>595</v>
       </c>
     </row>
     <row r="217">
@@ -3938,7 +4076,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>573</v>
+        <v>596</v>
       </c>
     </row>
     <row r="218">
@@ -3946,7 +4084,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>574</v>
+        <v>597</v>
       </c>
     </row>
     <row r="219">
@@ -3954,7 +4092,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>575</v>
+        <v>598</v>
       </c>
     </row>
     <row r="220">
@@ -3962,7 +4100,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>576</v>
+        <v>599</v>
       </c>
     </row>
     <row r="221">
@@ -3970,7 +4108,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>577</v>
+        <v>600</v>
       </c>
     </row>
     <row r="222">
@@ -3978,7 +4116,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>578</v>
+        <v>601</v>
       </c>
     </row>
     <row r="223">
@@ -3986,7 +4124,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>579</v>
+        <v>602</v>
       </c>
     </row>
     <row r="224">
@@ -3994,7 +4132,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>580</v>
+        <v>603</v>
       </c>
     </row>
     <row r="225">
@@ -4002,7 +4140,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>581</v>
+        <v>604</v>
       </c>
     </row>
     <row r="226">
@@ -4010,7 +4148,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>582</v>
+        <v>605</v>
       </c>
     </row>
     <row r="227">
@@ -4018,7 +4156,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>583</v>
+        <v>606</v>
       </c>
     </row>
     <row r="228">
@@ -4026,7 +4164,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>584</v>
+        <v>607</v>
       </c>
     </row>
     <row r="229">
@@ -4034,7 +4172,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>585</v>
+        <v>608</v>
       </c>
     </row>
     <row r="230">
@@ -4042,7 +4180,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>586</v>
+        <v>609</v>
       </c>
     </row>
     <row r="231">
@@ -4050,7 +4188,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>587</v>
+        <v>610</v>
       </c>
     </row>
     <row r="232">
@@ -4058,7 +4196,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>588</v>
+        <v>611</v>
       </c>
     </row>
     <row r="233">
@@ -4066,7 +4204,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>589</v>
+        <v>612</v>
       </c>
     </row>
     <row r="234">
@@ -4074,7 +4212,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>590</v>
+        <v>613</v>
       </c>
     </row>
     <row r="235">
@@ -4082,7 +4220,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>591</v>
+        <v>614</v>
       </c>
     </row>
     <row r="236">
@@ -4090,7 +4228,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>592</v>
+        <v>615</v>
       </c>
     </row>
     <row r="237">
@@ -4098,7 +4236,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>593</v>
+        <v>616</v>
       </c>
     </row>
     <row r="238">
@@ -4106,7 +4244,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>594</v>
+        <v>617</v>
       </c>
     </row>
     <row r="239">
@@ -4114,7 +4252,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>595</v>
+        <v>618</v>
       </c>
     </row>
     <row r="240">
@@ -4122,7 +4260,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>596</v>
+        <v>619</v>
       </c>
     </row>
     <row r="241">
@@ -4130,7 +4268,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>597</v>
+        <v>620</v>
       </c>
     </row>
     <row r="242">
@@ -4138,7 +4276,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>598</v>
+        <v>621</v>
       </c>
     </row>
     <row r="243">
@@ -4146,7 +4284,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>599</v>
+        <v>622</v>
       </c>
     </row>
     <row r="244">
@@ -4154,7 +4292,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>600</v>
+        <v>623</v>
       </c>
     </row>
     <row r="245">
@@ -4162,7 +4300,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>601</v>
+        <v>624</v>
       </c>
     </row>
     <row r="246">
@@ -4170,7 +4308,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>602</v>
+        <v>625</v>
       </c>
     </row>
     <row r="247">
@@ -4178,7 +4316,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>603</v>
+        <v>626</v>
       </c>
     </row>
     <row r="248">
@@ -4186,7 +4324,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>604</v>
+        <v>627</v>
       </c>
     </row>
     <row r="249">
@@ -4194,7 +4332,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>605</v>
+        <v>628</v>
       </c>
     </row>
     <row r="250">
@@ -4202,7 +4340,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>606</v>
+        <v>629</v>
       </c>
     </row>
     <row r="251">
@@ -4210,7 +4348,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>607</v>
+        <v>630</v>
       </c>
     </row>
     <row r="252">
@@ -4218,7 +4356,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>608</v>
+        <v>631</v>
       </c>
     </row>
     <row r="253">
@@ -4226,7 +4364,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
     </row>
     <row r="254">
@@ -4234,7 +4372,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>610</v>
+        <v>633</v>
       </c>
     </row>
     <row r="255">
@@ -4242,7 +4380,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>611</v>
+        <v>634</v>
       </c>
     </row>
     <row r="256">
@@ -4250,7 +4388,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>612</v>
+        <v>635</v>
       </c>
     </row>
     <row r="257">
@@ -4258,7 +4396,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>613</v>
+        <v>636</v>
       </c>
     </row>
     <row r="258">
@@ -4266,7 +4404,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>614</v>
+        <v>637</v>
       </c>
     </row>
     <row r="259">
@@ -4274,7 +4412,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>615</v>
+        <v>638</v>
       </c>
     </row>
     <row r="260">
@@ -4282,7 +4420,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>616</v>
+        <v>639</v>
       </c>
     </row>
     <row r="261">
@@ -4290,7 +4428,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>617</v>
+        <v>640</v>
       </c>
     </row>
     <row r="262">
@@ -4298,7 +4436,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>618</v>
+        <v>641</v>
       </c>
     </row>
     <row r="263">
@@ -4306,7 +4444,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>619</v>
+        <v>642</v>
       </c>
     </row>
     <row r="264">
@@ -4314,7 +4452,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>620</v>
+        <v>643</v>
       </c>
     </row>
     <row r="265">
@@ -4322,7 +4460,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>621</v>
+        <v>644</v>
       </c>
     </row>
     <row r="266">
@@ -4330,7 +4468,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>622</v>
+        <v>645</v>
       </c>
     </row>
     <row r="267">
@@ -4338,7 +4476,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>623</v>
+        <v>646</v>
       </c>
     </row>
     <row r="268">
@@ -4346,7 +4484,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>624</v>
+        <v>647</v>
       </c>
     </row>
     <row r="269">
@@ -4354,7 +4492,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>625</v>
+        <v>648</v>
       </c>
     </row>
     <row r="270">
@@ -4362,7 +4500,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>626</v>
+        <v>649</v>
       </c>
     </row>
     <row r="271">
@@ -4370,7 +4508,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>627</v>
+        <v>650</v>
       </c>
     </row>
     <row r="272">
@@ -4378,7 +4516,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>628</v>
+        <v>651</v>
       </c>
     </row>
     <row r="273">
@@ -4386,7 +4524,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>629</v>
+        <v>652</v>
       </c>
     </row>
     <row r="274">
@@ -4394,7 +4532,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>630</v>
+        <v>653</v>
       </c>
     </row>
     <row r="275">
@@ -4402,7 +4540,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>631</v>
+        <v>654</v>
       </c>
     </row>
     <row r="276">
@@ -4410,7 +4548,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>632</v>
+        <v>655</v>
       </c>
     </row>
     <row r="277">
@@ -4418,7 +4556,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>633</v>
+        <v>656</v>
       </c>
     </row>
     <row r="278">
@@ -4426,7 +4564,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>634</v>
+        <v>657</v>
       </c>
     </row>
     <row r="279">
@@ -4434,7 +4572,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>635</v>
+        <v>658</v>
       </c>
     </row>
     <row r="280">
@@ -4442,7 +4580,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>636</v>
+        <v>659</v>
       </c>
     </row>
     <row r="281">
@@ -4450,7 +4588,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>637</v>
+        <v>660</v>
       </c>
     </row>
     <row r="282">
@@ -4458,7 +4596,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>638</v>
+        <v>661</v>
       </c>
     </row>
     <row r="283">
@@ -4466,7 +4604,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>639</v>
+        <v>662</v>
       </c>
     </row>
     <row r="284">
@@ -4474,7 +4612,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>640</v>
+        <v>663</v>
       </c>
     </row>
     <row r="285">
@@ -4482,7 +4620,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>641</v>
+        <v>664</v>
       </c>
     </row>
     <row r="286">
@@ -4490,7 +4628,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>642</v>
+        <v>665</v>
       </c>
     </row>
     <row r="287">
@@ -4498,7 +4636,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>643</v>
+        <v>666</v>
       </c>
     </row>
     <row r="288">
@@ -4506,7 +4644,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>644</v>
+        <v>667</v>
       </c>
     </row>
     <row r="289">
@@ -4514,7 +4652,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>645</v>
+        <v>668</v>
       </c>
     </row>
     <row r="290">
@@ -4522,7 +4660,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>646</v>
+        <v>669</v>
       </c>
     </row>
     <row r="291">
@@ -4530,7 +4668,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>647</v>
+        <v>670</v>
       </c>
     </row>
     <row r="292">
@@ -4538,7 +4676,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>648</v>
+        <v>671</v>
       </c>
     </row>
     <row r="293">
@@ -4546,7 +4684,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>649</v>
+        <v>672</v>
       </c>
     </row>
     <row r="294">
@@ -4554,7 +4692,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>650</v>
+        <v>673</v>
       </c>
     </row>
     <row r="295">
@@ -4562,7 +4700,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>651</v>
+        <v>674</v>
       </c>
     </row>
     <row r="296">
@@ -4570,7 +4708,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>652</v>
+        <v>675</v>
       </c>
     </row>
     <row r="297">
@@ -4578,7 +4716,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>653</v>
+        <v>676</v>
       </c>
     </row>
     <row r="298">
@@ -4586,7 +4724,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>654</v>
+        <v>677</v>
       </c>
     </row>
     <row r="299">
@@ -4594,7 +4732,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>655</v>
+        <v>678</v>
       </c>
     </row>
     <row r="300">
@@ -4602,7 +4740,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>656</v>
+        <v>679</v>
       </c>
     </row>
     <row r="301">
@@ -4610,7 +4748,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>657</v>
+        <v>680</v>
       </c>
     </row>
     <row r="302">
@@ -4618,7 +4756,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>658</v>
+        <v>681</v>
       </c>
     </row>
     <row r="303">
@@ -4626,7 +4764,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>659</v>
+        <v>682</v>
       </c>
     </row>
     <row r="304">
@@ -4634,7 +4772,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>660</v>
+        <v>683</v>
       </c>
     </row>
     <row r="305">
@@ -4642,7 +4780,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>661</v>
+        <v>684</v>
       </c>
     </row>
     <row r="306">
@@ -4650,7 +4788,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>662</v>
+        <v>685</v>
       </c>
     </row>
     <row r="307">
@@ -4658,7 +4796,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>663</v>
+        <v>686</v>
       </c>
     </row>
     <row r="308">
@@ -4666,7 +4804,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>664</v>
+        <v>687</v>
       </c>
     </row>
     <row r="309">
@@ -4674,7 +4812,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>665</v>
+        <v>688</v>
       </c>
     </row>
     <row r="310">
@@ -4682,7 +4820,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>666</v>
+        <v>689</v>
       </c>
     </row>
     <row r="311">
@@ -4690,7 +4828,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>667</v>
+        <v>690</v>
       </c>
     </row>
     <row r="312">
@@ -4698,7 +4836,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>668</v>
+        <v>691</v>
       </c>
     </row>
     <row r="313">
@@ -4706,7 +4844,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>669</v>
+        <v>692</v>
       </c>
     </row>
     <row r="314">
@@ -4714,7 +4852,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
     </row>
     <row r="315">
@@ -4722,7 +4860,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>671</v>
+        <v>694</v>
       </c>
     </row>
     <row r="316">
@@ -4730,7 +4868,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>672</v>
+        <v>695</v>
       </c>
     </row>
     <row r="317">
@@ -4738,7 +4876,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>673</v>
+        <v>696</v>
       </c>
     </row>
     <row r="318">
@@ -4746,7 +4884,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>674</v>
+        <v>697</v>
       </c>
     </row>
     <row r="319">
@@ -4754,7 +4892,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>675</v>
+        <v>698</v>
       </c>
     </row>
     <row r="320">
@@ -4762,7 +4900,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>676</v>
+        <v>699</v>
       </c>
     </row>
     <row r="321">
@@ -4770,7 +4908,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>677</v>
+        <v>700</v>
       </c>
     </row>
     <row r="322">
@@ -4778,7 +4916,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>678</v>
+        <v>701</v>
       </c>
     </row>
     <row r="323">
@@ -4786,7 +4924,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>679</v>
+        <v>702</v>
       </c>
     </row>
     <row r="324">
@@ -4794,7 +4932,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>680</v>
+        <v>703</v>
       </c>
     </row>
     <row r="325">
@@ -4802,7 +4940,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>681</v>
+        <v>704</v>
       </c>
     </row>
     <row r="326">
@@ -4810,7 +4948,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>682</v>
+        <v>705</v>
       </c>
     </row>
     <row r="327">
@@ -4818,7 +4956,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>683</v>
+        <v>706</v>
       </c>
     </row>
     <row r="328">
@@ -4826,7 +4964,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>684</v>
+        <v>707</v>
       </c>
     </row>
     <row r="329">
@@ -4834,7 +4972,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>685</v>
+        <v>708</v>
       </c>
     </row>
     <row r="330">
@@ -4842,7 +4980,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>686</v>
+        <v>709</v>
       </c>
     </row>
     <row r="331">
@@ -4850,7 +4988,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>687</v>
+        <v>710</v>
       </c>
     </row>
     <row r="332">
@@ -4858,7 +4996,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>688</v>
+        <v>711</v>
       </c>
     </row>
     <row r="333">
@@ -4866,7 +5004,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>689</v>
+        <v>712</v>
       </c>
     </row>
     <row r="334">
@@ -4874,7 +5012,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>690</v>
+        <v>713</v>
       </c>
     </row>
     <row r="335">
@@ -4882,7 +5020,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>691</v>
+        <v>714</v>
       </c>
     </row>
     <row r="336">
@@ -4890,7 +5028,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>692</v>
+        <v>715</v>
       </c>
     </row>
     <row r="337">
@@ -4898,7 +5036,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>693</v>
+        <v>716</v>
       </c>
     </row>
     <row r="338">
@@ -4906,7 +5044,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>694</v>
+        <v>717</v>
       </c>
     </row>
     <row r="339">
@@ -4914,7 +5052,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>695</v>
+        <v>718</v>
       </c>
     </row>
     <row r="340">
@@ -4922,7 +5060,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>696</v>
+        <v>719</v>
       </c>
     </row>
     <row r="341">
@@ -4930,7 +5068,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>697</v>
+        <v>720</v>
       </c>
     </row>
     <row r="342">
@@ -4938,7 +5076,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>698</v>
+        <v>721</v>
       </c>
     </row>
     <row r="343">
@@ -4946,7 +5084,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>699</v>
+        <v>722</v>
       </c>
     </row>
     <row r="344">
@@ -4954,7 +5092,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>700</v>
+        <v>723</v>
       </c>
     </row>
     <row r="345">
@@ -4962,7 +5100,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>701</v>
+        <v>724</v>
       </c>
     </row>
     <row r="346">
@@ -4970,7 +5108,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>702</v>
+        <v>725</v>
       </c>
     </row>
     <row r="347">
@@ -4978,7 +5116,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>703</v>
+        <v>726</v>
       </c>
     </row>
     <row r="348">
@@ -4986,7 +5124,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>704</v>
+        <v>727</v>
       </c>
     </row>
     <row r="349">
@@ -4994,7 +5132,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>705</v>
+        <v>728</v>
       </c>
     </row>
     <row r="350">
@@ -5002,7 +5140,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>706</v>
+        <v>729</v>
       </c>
     </row>
     <row r="351">
@@ -5010,7 +5148,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>707</v>
+        <v>730</v>
       </c>
     </row>
     <row r="352">
@@ -5018,7 +5156,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>708</v>
+        <v>731</v>
       </c>
     </row>
     <row r="353">
@@ -5026,7 +5164,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>709</v>
+        <v>732</v>
       </c>
     </row>
     <row r="354">
@@ -5034,7 +5172,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>710</v>
+        <v>733</v>
       </c>
     </row>
     <row r="355">
@@ -5042,7 +5180,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>711</v>
+        <v>734</v>
       </c>
     </row>
     <row r="356">
@@ -5050,7 +5188,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>712</v>
+        <v>735</v>
       </c>
     </row>
     <row r="357">
@@ -5058,7 +5196,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>713</v>
+        <v>736</v>
       </c>
     </row>
     <row r="358">
@@ -5066,7 +5204,191 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>714</v>
+        <v>737</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>358</v>
+      </c>
+      <c r="B359" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>359</v>
+      </c>
+      <c r="B360" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>360</v>
+      </c>
+      <c r="B361" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>361</v>
+      </c>
+      <c r="B362" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>362</v>
+      </c>
+      <c r="B363" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>363</v>
+      </c>
+      <c r="B364" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>364</v>
+      </c>
+      <c r="B365" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>365</v>
+      </c>
+      <c r="B366" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>366</v>
+      </c>
+      <c r="B367" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>367</v>
+      </c>
+      <c r="B368" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>368</v>
+      </c>
+      <c r="B369" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>369</v>
+      </c>
+      <c r="B370" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>370</v>
+      </c>
+      <c r="B371" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>371</v>
+      </c>
+      <c r="B372" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>372</v>
+      </c>
+      <c r="B373" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>373</v>
+      </c>
+      <c r="B374" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>374</v>
+      </c>
+      <c r="B375" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>375</v>
+      </c>
+      <c r="B376" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>376</v>
+      </c>
+      <c r="B377" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>377</v>
+      </c>
+      <c r="B378" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>378</v>
+      </c>
+      <c r="B379" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>379</v>
+      </c>
+      <c r="B380" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>380</v>
+      </c>
+      <c r="B381" t="s">
+        <v>760</v>
       </c>
     </row>
   </sheetData>

--- a/epl_match_urls.xlsx
+++ b/epl_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>x</t>
   </si>
@@ -167,6 +167,36 @@
     <t>50</t>
   </si>
   <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/cc5b4244/Manchester-United-Fulham-August-16-2024-Premier-League</t>
   </si>
   <si>
@@ -315,6 +345,36 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/d7538020/Manchester-City-Arsenal-September-22-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b4df0bca/Newcastle-United-Manchester-City-September-28-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1714cebe/Chelsea-Brighton-and-Hove-Albion-September-28-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2ee60ac7/Arsenal-Leicester-City-September-28-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9c4f2bcd/Brentford-West-Ham-United-September-28-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d47382cd/Everton-Crystal-Palace-September-28-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ee7d3371/Nottingham-Forest-Fulham-September-28-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f2633f1d/Wolverhampton-Wanderers-Liverpool-September-28-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ef742b9c/Ipswich-Town-Aston-Villa-September-29-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c4b97377/Manchester-United-Tottenham-Hotspur-September-29-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/04d2cc03/Bournemouth-Southampton-September-30-2024-Premier-League</t>
   </si>
 </sst>
 </file>
@@ -376,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -392,7 +452,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -400,7 +460,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -408,7 +468,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -416,7 +476,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
@@ -424,7 +484,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
@@ -432,7 +492,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
@@ -440,7 +500,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -448,7 +508,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -456,7 +516,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
@@ -464,7 +524,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
@@ -472,7 +532,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
@@ -480,7 +540,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
@@ -488,7 +548,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -496,7 +556,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
@@ -504,7 +564,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
@@ -512,7 +572,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
@@ -520,7 +580,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
@@ -528,7 +588,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
@@ -536,7 +596,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
@@ -544,7 +604,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
@@ -552,7 +612,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
@@ -560,7 +620,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26">
@@ -568,7 +628,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
@@ -576,7 +636,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
@@ -584,7 +644,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29">
@@ -592,7 +652,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30">
@@ -600,7 +660,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31">
@@ -608,7 +668,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
@@ -616,7 +676,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33">
@@ -624,7 +684,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34">
@@ -632,7 +692,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35">
@@ -640,7 +700,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
@@ -648,7 +708,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37">
@@ -656,7 +716,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38">
@@ -664,7 +724,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39">
@@ -672,7 +732,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40">
@@ -680,7 +740,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41">
@@ -688,7 +748,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42">
@@ -696,7 +756,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43">
@@ -704,7 +764,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44">
@@ -712,7 +772,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45">
@@ -720,7 +780,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46">
@@ -728,7 +788,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47">
@@ -736,7 +796,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48">
@@ -744,7 +804,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49">
@@ -752,7 +812,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50">
@@ -760,7 +820,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51">
@@ -768,7 +828,87 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/epl_match_urls.xlsx
+++ b/epl_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t>x</t>
   </si>
@@ -197,6 +197,66 @@
     <t>60</t>
   </si>
   <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/cc5b4244/Manchester-United-Fulham-August-16-2024-Premier-League</t>
   </si>
   <si>
@@ -375,6 +435,66 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/04d2cc03/Bournemouth-Southampton-September-30-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/49ea224b/Crystal-Palace-Liverpool-October-5-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/61d60f62/Manchester-City-Fulham-October-5-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/909090f8/Brentford-Wolverhampton-Wanderers-October-5-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/93e19c5e/West-Ham-United-Ipswich-Town-October-5-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c6439e5b/Arsenal-Southampton-October-5-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d153872e/Leicester-City-Bournemouth-October-5-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e99a7857/Everton-Newcastle-United-October-5-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/abef5f2a/Aston-Villa-Manchester-United-October-6-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b9e00aac/Chelsea-Nottingham-Forest-October-6-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/dac142c7/Brighton-and-Hove-Albion-Tottenham-Hotspur-October-6-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/923bfab0/Tottenham-Hotspur-West-Ham-United-October-19-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/03d28c48/Southampton-Leicester-City-October-19-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2273e126/Ipswich-Town-Everton-October-19-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/48081db0/Newcastle-United-Brighton-and-Hove-Albion-October-19-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/615d637e/Fulham-Aston-Villa-October-19-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7f2c3291/Manchester-United-Brentford-October-19-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/01e63a1f/Bournemouth-Arsenal-October-19-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/90b22cd5/Wolverhampton-Wanderers-Manchester-City-October-20-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/99b4737c/Liverpool-Chelsea-October-20-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5ed3894e/Nottingham-Forest-Crystal-Palace-October-21-2024-Premier-League</t>
   </si>
 </sst>
 </file>
@@ -436,7 +556,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
@@ -444,7 +564,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
@@ -452,7 +572,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -460,7 +580,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -468,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -476,7 +596,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -484,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
@@ -492,7 +612,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
@@ -500,7 +620,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
@@ -508,7 +628,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -516,7 +636,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
@@ -524,7 +644,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
@@ -532,7 +652,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
@@ -540,7 +660,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
@@ -548,7 +668,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
@@ -556,7 +676,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18">
@@ -564,7 +684,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19">
@@ -572,7 +692,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
@@ -580,7 +700,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21">
@@ -588,7 +708,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -596,7 +716,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23">
@@ -604,7 +724,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
@@ -612,7 +732,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
@@ -620,7 +740,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
@@ -628,7 +748,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27">
@@ -636,7 +756,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
@@ -644,7 +764,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -652,7 +772,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30">
@@ -660,7 +780,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -668,7 +788,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
@@ -676,7 +796,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
@@ -684,7 +804,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34">
@@ -692,7 +812,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
@@ -700,7 +820,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36">
@@ -708,7 +828,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37">
@@ -716,7 +836,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38">
@@ -724,7 +844,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39">
@@ -732,7 +852,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40">
@@ -740,7 +860,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41">
@@ -748,7 +868,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
@@ -756,7 +876,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43">
@@ -764,7 +884,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44">
@@ -772,7 +892,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45">
@@ -780,7 +900,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46">
@@ -788,7 +908,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47">
@@ -796,7 +916,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48">
@@ -804,7 +924,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49">
@@ -812,7 +932,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50">
@@ -820,7 +940,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51">
@@ -828,7 +948,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52">
@@ -836,7 +956,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53">
@@ -844,7 +964,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54">
@@ -852,7 +972,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55">
@@ -860,7 +980,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56">
@@ -868,7 +988,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57">
@@ -876,7 +996,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58">
@@ -884,7 +1004,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59">
@@ -892,7 +1012,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60">
@@ -900,7 +1020,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61">
@@ -908,7 +1028,167 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>120</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/epl_match_urls.xlsx
+++ b/epl_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>x</t>
   </si>
@@ -257,6 +257,66 @@
     <t>80</t>
   </si>
   <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/cc5b4244/Manchester-United-Fulham-August-16-2024-Premier-League</t>
   </si>
   <si>
@@ -495,6 +555,66 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/5ed3894e/Nottingham-Forest-Crystal-Palace-October-21-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/292d8bc4/Leicester-City-Nottingham-Forest-October-25-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1fb2dcde/Brentford-Ipswich-Town-October-26-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9487e056/Brighton-and-Hove-Albion-Wolverhampton-Wanderers-October-26-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b66f6389/Manchester-City-Southampton-October-26-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bce300b2/Aston-Villa-Bournemouth-October-26-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1e5152bf/Everton-Fulham-October-26-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/33571b04/Chelsea-Newcastle-United-October-27-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/38c31a07/West-Ham-United-Manchester-United-October-27-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e995d937/Crystal-Palace-Tottenham-Hotspur-October-27-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/68aa1099/Arsenal-Liverpool-October-27-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cc960c22/Newcastle-United-Arsenal-November-2-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2be42fdb/Southampton-Everton-November-2-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7d114c70/Liverpool-Brighton-and-Hove-Albion-November-2-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c2505640/Nottingham-Forest-West-Ham-United-November-2-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ed8f93a0/Ipswich-Town-Leicester-City-November-2-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ed970fef/Bournemouth-Manchester-City-November-2-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a4251fae/Wolverhampton-Wanderers-Crystal-Palace-November-2-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8fa951f9/Tottenham-Hotspur-Aston-Villa-November-3-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1273ae28/Manchester-United-Chelsea-November-3-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e1590847/Fulham-Brentford-November-4-2024-Premier-League</t>
   </si>
 </sst>
 </file>
@@ -556,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3">
@@ -564,7 +684,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
@@ -572,7 +692,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5">
@@ -580,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
@@ -588,7 +708,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7">
@@ -596,7 +716,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
@@ -604,7 +724,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +732,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
@@ -620,7 +740,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
@@ -628,7 +748,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -636,7 +756,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13">
@@ -644,7 +764,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
@@ -652,7 +772,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15">
@@ -660,7 +780,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16">
@@ -668,7 +788,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17">
@@ -676,7 +796,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18">
@@ -684,7 +804,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19">
@@ -692,7 +812,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20">
@@ -700,7 +820,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21">
@@ -708,7 +828,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22">
@@ -716,7 +836,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23">
@@ -724,7 +844,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24">
@@ -732,7 +852,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25">
@@ -740,7 +860,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26">
@@ -748,7 +868,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27">
@@ -756,7 +876,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28">
@@ -764,7 +884,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29">
@@ -772,7 +892,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30">
@@ -780,7 +900,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31">
@@ -788,7 +908,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
@@ -796,7 +916,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33">
@@ -804,7 +924,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34">
@@ -812,7 +932,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35">
@@ -820,7 +940,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36">
@@ -828,7 +948,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37">
@@ -836,7 +956,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38">
@@ -844,7 +964,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39">
@@ -852,7 +972,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40">
@@ -860,7 +980,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41">
@@ -868,7 +988,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42">
@@ -876,7 +996,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43">
@@ -884,7 +1004,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44">
@@ -892,7 +1012,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45">
@@ -900,7 +1020,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46">
@@ -908,7 +1028,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47">
@@ -916,7 +1036,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48">
@@ -924,7 +1044,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49">
@@ -932,7 +1052,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50">
@@ -940,7 +1060,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51">
@@ -948,7 +1068,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52">
@@ -956,7 +1076,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53">
@@ -964,7 +1084,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +1092,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55">
@@ -980,7 +1100,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56">
@@ -988,7 +1108,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57">
@@ -996,7 +1116,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58">
@@ -1004,7 +1124,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59">
@@ -1012,7 +1132,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60">
@@ -1020,7 +1140,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61">
@@ -1028,7 +1148,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62">
@@ -1036,7 +1156,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63">
@@ -1044,7 +1164,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64">
@@ -1052,7 +1172,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65">
@@ -1060,7 +1180,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66">
@@ -1068,7 +1188,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67">
@@ -1076,7 +1196,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68">
@@ -1084,7 +1204,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69">
@@ -1092,7 +1212,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70">
@@ -1100,7 +1220,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71">
@@ -1108,7 +1228,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72">
@@ -1116,7 +1236,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73">
@@ -1124,7 +1244,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74">
@@ -1132,7 +1252,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75">
@@ -1140,7 +1260,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76">
@@ -1148,7 +1268,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77">
@@ -1156,7 +1276,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78">
@@ -1164,7 +1284,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79">
@@ -1172,7 +1292,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80">
@@ -1180,7 +1300,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
     </row>
     <row r="81">
@@ -1188,7 +1308,167 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>160</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/epl_match_urls.xlsx
+++ b/epl_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
   <si>
     <t>x</t>
   </si>
@@ -317,6 +317,36 @@
     <t>100</t>
   </si>
   <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/cc5b4244/Manchester-United-Fulham-August-16-2024-Premier-League</t>
   </si>
   <si>
@@ -615,6 +645,36 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/e1590847/Fulham-Brentford-November-4-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1c998ef5/Brentford-Bournemouth-November-9-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a4cf40b4/West-Ham-United-Everton-November-9-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d5015ba4/Crystal-Palace-Fulham-November-9-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/dbec2d40/Wolverhampton-Wanderers-Southampton-November-9-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/62aa7905/Brighton-and-Hove-Albion-Manchester-City-November-9-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/737af5bf/Liverpool-Aston-Villa-November-9-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/35888afe/Manchester-United-Leicester-City-November-10-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a41ce5c3/Nottingham-Forest-Newcastle-United-November-10-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f9b9c3c4/Tottenham-Hotspur-Ipswich-Town-November-10-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2874d56e/North-West-London-Derby-Chelsea-Arsenal-November-10-2024-Premier-League</t>
   </si>
 </sst>
 </file>
@@ -676,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3">
@@ -684,7 +744,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4">
@@ -692,7 +752,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5">
@@ -700,7 +760,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
@@ -708,7 +768,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7">
@@ -716,7 +776,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
@@ -724,7 +784,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
@@ -732,7 +792,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
@@ -740,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
@@ -748,7 +808,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -756,7 +816,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
@@ -764,7 +824,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
@@ -772,7 +832,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15">
@@ -780,7 +840,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16">
@@ -788,7 +848,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17">
@@ -796,7 +856,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18">
@@ -804,7 +864,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +872,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20">
@@ -820,7 +880,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21">
@@ -828,7 +888,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22">
@@ -836,7 +896,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23">
@@ -844,7 +904,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24">
@@ -852,7 +912,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25">
@@ -860,7 +920,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26">
@@ -868,7 +928,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27">
@@ -876,7 +936,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28">
@@ -884,7 +944,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29">
@@ -892,7 +952,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30">
@@ -900,7 +960,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31">
@@ -908,7 +968,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32">
@@ -916,7 +976,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33">
@@ -924,7 +984,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34">
@@ -932,7 +992,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35">
@@ -940,7 +1000,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36">
@@ -948,7 +1008,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37">
@@ -956,7 +1016,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38">
@@ -964,7 +1024,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39">
@@ -972,7 +1032,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40">
@@ -980,7 +1040,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41">
@@ -988,7 +1048,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42">
@@ -996,7 +1056,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43">
@@ -1004,7 +1064,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44">
@@ -1012,7 +1072,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45">
@@ -1020,7 +1080,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46">
@@ -1028,7 +1088,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47">
@@ -1036,7 +1096,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48">
@@ -1044,7 +1104,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49">
@@ -1052,7 +1112,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50">
@@ -1060,7 +1120,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51">
@@ -1068,7 +1128,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52">
@@ -1076,7 +1136,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53">
@@ -1084,7 +1144,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54">
@@ -1092,7 +1152,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55">
@@ -1100,7 +1160,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56">
@@ -1108,7 +1168,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57">
@@ -1116,7 +1176,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58">
@@ -1124,7 +1184,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59">
@@ -1132,7 +1192,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60">
@@ -1140,7 +1200,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61">
@@ -1148,7 +1208,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62">
@@ -1156,7 +1216,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63">
@@ -1164,7 +1224,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64">
@@ -1172,7 +1232,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65">
@@ -1180,7 +1240,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66">
@@ -1188,7 +1248,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67">
@@ -1196,7 +1256,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68">
@@ -1204,7 +1264,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69">
@@ -1212,7 +1272,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70">
@@ -1220,7 +1280,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="71">
@@ -1228,7 +1288,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72">
@@ -1236,7 +1296,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73">
@@ -1244,7 +1304,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74">
@@ -1252,7 +1312,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75">
@@ -1260,7 +1320,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76">
@@ -1268,7 +1328,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77">
@@ -1276,7 +1336,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78">
@@ -1284,7 +1344,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79">
@@ -1292,7 +1352,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80">
@@ -1300,7 +1360,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81">
@@ -1308,7 +1368,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82">
@@ -1316,7 +1376,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83">
@@ -1324,7 +1384,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84">
@@ -1332,7 +1392,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="85">
@@ -1340,7 +1400,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86">
@@ -1348,7 +1408,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="87">
@@ -1356,7 +1416,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="88">
@@ -1364,7 +1424,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89">
@@ -1372,7 +1432,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90">
@@ -1380,7 +1440,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="91">
@@ -1388,7 +1448,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92">
@@ -1396,7 +1456,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93">
@@ -1404,7 +1464,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94">
@@ -1412,7 +1472,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95">
@@ -1420,7 +1480,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96">
@@ -1428,7 +1488,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97">
@@ -1436,7 +1496,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98">
@@ -1444,7 +1504,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99">
@@ -1452,7 +1512,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100">
@@ -1460,7 +1520,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101">
@@ -1468,7 +1528,87 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>200</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/epl_match_urls.xlsx
+++ b/epl_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="319">
   <si>
     <t>x</t>
   </si>
@@ -347,6 +347,153 @@
     <t>110</t>
   </si>
   <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/cc5b4244/Manchester-United-Fulham-August-16-2024-Premier-League</t>
   </si>
   <si>
@@ -675,6 +822,153 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/2874d56e/North-West-London-Derby-Chelsea-Arsenal-November-10-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bb885467/Leicester-City-Chelsea-November-23-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0cb4129b/Arsenal-Nottingham-Forest-November-23-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4708a5bf/Bournemouth-Brighton-and-Hove-Albion-November-23-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bf2e07a1/Aston-Villa-Crystal-Palace-November-23-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/dd7675a7/Everton-Brentford-November-23-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ed24aeb8/Fulham-Wolverhampton-Wanderers-November-23-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c48b896c/Manchester-City-Tottenham-Hotspur-November-23-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/eb6f8e39/Southampton-Liverpool-November-24-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/db1e4ea5/Ipswich-Town-Manchester-United-November-24-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/79f46eec/Newcastle-United-West-Ham-United-November-25-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d38c4a31/Brighton-and-Hove-Albion-Southampton-November-29-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a4f03af0/Crystal-Palace-Newcastle-United-November-30-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/adfb1b89/Wolverhampton-Wanderers-Bournemouth-November-30-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ddc8856c/Nottingham-Forest-Ipswich-Town-November-30-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f4f9a64f/Brentford-Leicester-City-November-30-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f78bee62/West-Ham-United-Arsenal-November-30-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/080b797b/Chelsea-Aston-Villa-December-1-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9aaa6ed5/Tottenham-Hotspur-Fulham-December-1-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e6eef20f/Manchester-United-Everton-December-1-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0bd6ad44/Liverpool-Manchester-City-December-1-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f7a96e82/Ipswich-Town-Crystal-Palace-December-3-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/355fd8ce/Leicester-City-West-Ham-United-December-3-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/71f00b04/Everton-Wolverhampton-Wanderers-December-4-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ca898c29/Newcastle-United-Liverpool-December-4-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/dedb0eee/Manchester-City-Nottingham-Forest-December-4-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e4480630/Southampton-Chelsea-December-4-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9938aa27/Arsenal-Manchester-United-December-4-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c24a734b/Aston-Villa-Brentford-December-4-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/32aaf579/Fulham-Brighton-and-Hove-Albion-December-5-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c7e59a0a/Bournemouth-Tottenham-Hotspur-December-5-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1042592d/Brentford-Newcastle-United-December-7-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6b7fbda1/Crystal-Palace-Manchester-City-December-7-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/92cfde2c/Aston-Villa-Southampton-December-7-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/08966ea6/Manchester-United-Nottingham-Forest-December-7-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/038dfa98/Fulham-Arsenal-December-8-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/392c7b1f/Ipswich-Town-Bournemouth-December-8-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7b549f8f/Leicester-City-Brighton-and-Hove-Albion-December-8-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/abff9b73/Tottenham-Hotspur-Chelsea-December-8-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4d72ec87/West-Ham-United-Wolverhampton-Wanderers-December-9-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0b6fe43f/Newcastle-United-Leicester-City-December-14-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/32aa9e8e/Arsenal-Everton-December-14-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/46d52e33/Wolverhampton-Wanderers-Ipswich-Town-December-14-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a436996c/Liverpool-Fulham-December-14-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/26926fd3/Nottingham-Forest-Aston-Villa-December-14-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c8314a05/Brighton-and-Hove-Albion-Crystal-Palace-December-15-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3d772028/Manchester-Derby-Manchester-City-Manchester-United-December-15-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/37afd6da/Southampton-Tottenham-Hotspur-December-15-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5f0803f7/Chelsea-Brentford-December-15-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/49cd674b/Bournemouth-West-Ham-United-December-16-2024-Premier-League</t>
   </si>
 </sst>
 </file>
@@ -736,7 +1030,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +1038,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4">
@@ -752,7 +1046,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5">
@@ -760,7 +1054,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6">
@@ -768,7 +1062,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7">
@@ -776,7 +1070,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8">
@@ -784,7 +1078,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9">
@@ -792,7 +1086,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10">
@@ -800,7 +1094,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
@@ -808,7 +1102,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12">
@@ -816,7 +1110,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13">
@@ -824,7 +1118,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14">
@@ -832,7 +1126,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
@@ -840,7 +1134,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16">
@@ -848,7 +1142,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
@@ -856,7 +1150,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18">
@@ -864,7 +1158,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
@@ -872,7 +1166,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20">
@@ -880,7 +1174,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21">
@@ -888,7 +1182,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22">
@@ -896,7 +1190,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23">
@@ -904,7 +1198,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24">
@@ -912,7 +1206,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25">
@@ -920,7 +1214,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26">
@@ -928,7 +1222,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27">
@@ -936,7 +1230,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>136</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28">
@@ -944,7 +1238,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29">
@@ -952,7 +1246,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30">
@@ -960,7 +1254,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31">
@@ -968,7 +1262,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32">
@@ -976,7 +1270,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33">
@@ -984,7 +1278,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34">
@@ -992,7 +1286,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35">
@@ -1000,7 +1294,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36">
@@ -1008,7 +1302,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37">
@@ -1016,7 +1310,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38">
@@ -1024,7 +1318,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39">
@@ -1032,7 +1326,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40">
@@ -1040,7 +1334,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41">
@@ -1048,7 +1342,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42">
@@ -1056,7 +1350,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43">
@@ -1064,7 +1358,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44">
@@ -1072,7 +1366,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45">
@@ -1080,7 +1374,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>154</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46">
@@ -1088,7 +1382,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47">
@@ -1096,7 +1390,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48">
@@ -1104,7 +1398,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49">
@@ -1112,7 +1406,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50">
@@ -1120,7 +1414,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51">
@@ -1128,7 +1422,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52">
@@ -1136,7 +1430,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53">
@@ -1144,7 +1438,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54">
@@ -1152,7 +1446,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55">
@@ -1160,7 +1454,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56">
@@ -1168,7 +1462,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57">
@@ -1176,7 +1470,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58">
@@ -1184,7 +1478,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59">
@@ -1192,7 +1486,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>168</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60">
@@ -1200,7 +1494,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61">
@@ -1208,7 +1502,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62">
@@ -1216,7 +1510,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63">
@@ -1224,7 +1518,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64">
@@ -1232,7 +1526,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>173</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65">
@@ -1240,7 +1534,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66">
@@ -1248,7 +1542,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67">
@@ -1256,7 +1550,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>176</v>
+        <v>225</v>
       </c>
     </row>
     <row r="68">
@@ -1264,7 +1558,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
     </row>
     <row r="69">
@@ -1272,7 +1566,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>178</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70">
@@ -1280,7 +1574,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>179</v>
+        <v>228</v>
       </c>
     </row>
     <row r="71">
@@ -1288,7 +1582,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72">
@@ -1296,7 +1590,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73">
@@ -1304,7 +1598,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74">
@@ -1312,7 +1606,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75">
@@ -1320,7 +1614,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>184</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76">
@@ -1328,7 +1622,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>185</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77">
@@ -1336,7 +1630,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>186</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78">
@@ -1344,7 +1638,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79">
@@ -1352,7 +1646,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>188</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80">
@@ -1360,7 +1654,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81">
@@ -1368,7 +1662,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>190</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82">
@@ -1376,7 +1670,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83">
@@ -1384,7 +1678,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84">
@@ -1392,7 +1686,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85">
@@ -1400,7 +1694,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86">
@@ -1408,7 +1702,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>195</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87">
@@ -1416,7 +1710,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
     </row>
     <row r="88">
@@ -1424,7 +1718,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>197</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89">
@@ -1432,7 +1726,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>198</v>
+        <v>247</v>
       </c>
     </row>
     <row r="90">
@@ -1440,7 +1734,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>199</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91">
@@ -1448,7 +1742,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>200</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92">
@@ -1456,7 +1750,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>201</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93">
@@ -1464,7 +1758,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94">
@@ -1472,7 +1766,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>203</v>
+        <v>252</v>
       </c>
     </row>
     <row r="95">
@@ -1480,7 +1774,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>204</v>
+        <v>253</v>
       </c>
     </row>
     <row r="96">
@@ -1488,7 +1782,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
     </row>
     <row r="97">
@@ -1496,7 +1790,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
     </row>
     <row r="98">
@@ -1504,7 +1798,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>207</v>
+        <v>256</v>
       </c>
     </row>
     <row r="99">
@@ -1512,7 +1806,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
     </row>
     <row r="100">
@@ -1520,7 +1814,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
     </row>
     <row r="101">
@@ -1528,7 +1822,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
     </row>
     <row r="102">
@@ -1536,7 +1830,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>211</v>
+        <v>260</v>
       </c>
     </row>
     <row r="103">
@@ -1544,7 +1838,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>212</v>
+        <v>261</v>
       </c>
     </row>
     <row r="104">
@@ -1552,7 +1846,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
     </row>
     <row r="105">
@@ -1560,7 +1854,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>214</v>
+        <v>263</v>
       </c>
     </row>
     <row r="106">
@@ -1568,7 +1862,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>215</v>
+        <v>264</v>
       </c>
     </row>
     <row r="107">
@@ -1576,7 +1870,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>216</v>
+        <v>265</v>
       </c>
     </row>
     <row r="108">
@@ -1584,7 +1878,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>217</v>
+        <v>266</v>
       </c>
     </row>
     <row r="109">
@@ -1592,7 +1886,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
     </row>
     <row r="110">
@@ -1600,7 +1894,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
     </row>
     <row r="111">
@@ -1608,7 +1902,399 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>220</v>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/epl_match_urls.xlsx
+++ b/epl_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="399">
   <si>
     <t>x</t>
   </si>
@@ -494,6 +494,126 @@
     <t>159</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/cc5b4244/Manchester-United-Fulham-August-16-2024-Premier-League</t>
   </si>
   <si>
@@ -969,6 +1089,126 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/49cd674b/Bournemouth-West-Ham-United-December-16-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ce9dc982/Aston-Villa-Manchester-City-December-21-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/04be8e87/West-Ham-United-Brighton-and-Hove-Albion-December-21-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1c60d037/Brentford-Nottingham-Forest-December-21-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/764fc51e/Ipswich-Town-Newcastle-United-December-21-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5e7aa707/Crystal-Palace-Arsenal-December-21-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8381ba53/Manchester-United-Bournemouth-December-22-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ba3fcb1e/Fulham-Southampton-December-22-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/de72140c/Everton-Chelsea-December-22-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ecd6cb1d/Leicester-City-Wolverhampton-Wanderers-December-22-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1e1cea4c/Tottenham-Hotspur-Liverpool-December-22-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/87f2d794/Manchester-City-Everton-December-26-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/03d6159c/Chelsea-Fulham-December-26-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8050686b/Southampton-West-Ham-United-December-26-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/886ca6b3/Bournemouth-Crystal-Palace-December-26-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9985f304/Newcastle-United-Aston-Villa-December-26-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/eb738106/Nottingham-Forest-Tottenham-Hotspur-December-26-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/77bcad49/Wolverhampton-Wanderers-Manchester-United-December-26-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1f604fbd/Liverpool-Leicester-City-December-26-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/15b10b33/Brighton-and-Hove-Albion-Brentford-December-27-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/668dad03/Arsenal-Ipswich-Town-December-27-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8bbb6d95/Leicester-City-Manchester-City-December-29-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3d2ef5b4/Tottenham-Hotspur-Wolverhampton-Wanderers-December-29-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4b4023dc/Fulham-Bournemouth-December-29-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5fa986dc/Everton-Nottingham-Forest-December-29-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6d06b29c/Crystal-Palace-Southampton-December-29-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c1a66ac0/West-Ham-United-Liverpool-December-29-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5e8340e9/Aston-Villa-Brighton-and-Hove-Albion-December-30-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/88073205/Ipswich-Town-Chelsea-December-30-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8cff7a63/Manchester-United-Newcastle-United-December-30-2024-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7e6892e4/Brentford-Arsenal-January-1-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/be247ac3/Tottenham-Hotspur-Newcastle-United-January-4-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/36fc576a/Southampton-Brentford-January-4-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/43f0c302/Bournemouth-Everton-January-4-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cd9861d5/Crystal-Palace-Chelsea-January-4-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d7773a4c/Manchester-City-West-Ham-United-January-4-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f5ae8d7d/Aston-Villa-Leicester-City-January-4-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/52186da4/Brighton-and-Hove-Albion-Arsenal-January-4-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8b69ef69/Fulham-Ipswich-Town-January-5-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4cef863f/North-West-Derby-Liverpool-Manchester-United-January-5-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/56c4250a/Wolverhampton-Wanderers-Nottingham-Forest-January-6-2025-Premier-League</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3">
@@ -1038,7 +1278,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4">
@@ -1046,7 +1286,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5">
@@ -1054,7 +1294,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1302,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7">
@@ -1070,7 +1310,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8">
@@ -1078,7 +1318,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9">
@@ -1086,7 +1326,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10">
@@ -1094,7 +1334,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11">
@@ -1102,7 +1342,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12">
@@ -1110,7 +1350,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13">
@@ -1118,7 +1358,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14">
@@ -1126,7 +1366,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15">
@@ -1134,7 +1374,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1382,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17">
@@ -1150,7 +1390,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18">
@@ -1158,7 +1398,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19">
@@ -1166,7 +1406,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20">
@@ -1174,7 +1414,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21">
@@ -1182,7 +1422,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22">
@@ -1190,7 +1430,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23">
@@ -1198,7 +1438,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24">
@@ -1206,7 +1446,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25">
@@ -1214,7 +1454,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26">
@@ -1222,7 +1462,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27">
@@ -1230,7 +1470,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28">
@@ -1238,7 +1478,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1486,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30">
@@ -1254,7 +1494,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31">
@@ -1262,7 +1502,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32">
@@ -1270,7 +1510,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33">
@@ -1278,7 +1518,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34">
@@ -1286,7 +1526,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35">
@@ -1294,7 +1534,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36">
@@ -1302,7 +1542,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37">
@@ -1310,7 +1550,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38">
@@ -1318,7 +1558,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39">
@@ -1326,7 +1566,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40">
@@ -1334,7 +1574,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41">
@@ -1342,7 +1582,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42">
@@ -1350,7 +1590,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43">
@@ -1358,7 +1598,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44">
@@ -1366,7 +1606,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45">
@@ -1374,7 +1614,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46">
@@ -1382,7 +1622,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
     </row>
     <row r="47">
@@ -1390,7 +1630,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48">
@@ -1398,7 +1638,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49">
@@ -1406,7 +1646,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50">
@@ -1414,7 +1654,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51">
@@ -1422,7 +1662,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52">
@@ -1430,7 +1670,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53">
@@ -1438,7 +1678,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54">
@@ -1446,7 +1686,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55">
@@ -1454,7 +1694,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
     </row>
     <row r="56">
@@ -1462,7 +1702,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
     </row>
     <row r="57">
@@ -1470,7 +1710,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58">
@@ -1478,7 +1718,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>216</v>
+        <v>256</v>
       </c>
     </row>
     <row r="59">
@@ -1486,7 +1726,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60">
@@ -1494,7 +1734,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
     </row>
     <row r="61">
@@ -1502,7 +1742,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
     </row>
     <row r="62">
@@ -1510,7 +1750,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
     </row>
     <row r="63">
@@ -1518,7 +1758,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64">
@@ -1526,7 +1766,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
     </row>
     <row r="65">
@@ -1534,7 +1774,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
     </row>
     <row r="66">
@@ -1542,7 +1782,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
     </row>
     <row r="67">
@@ -1550,7 +1790,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
     </row>
     <row r="68">
@@ -1558,7 +1798,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
     </row>
     <row r="69">
@@ -1566,7 +1806,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
     </row>
     <row r="70">
@@ -1574,7 +1814,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71">
@@ -1582,7 +1822,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
     </row>
     <row r="72">
@@ -1590,7 +1830,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
     </row>
     <row r="73">
@@ -1598,7 +1838,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
     </row>
     <row r="74">
@@ -1606,7 +1846,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
     </row>
     <row r="75">
@@ -1614,7 +1854,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
     </row>
     <row r="76">
@@ -1622,7 +1862,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
     </row>
     <row r="77">
@@ -1630,7 +1870,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
     </row>
     <row r="78">
@@ -1638,7 +1878,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
     </row>
     <row r="79">
@@ -1646,7 +1886,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
     </row>
     <row r="80">
@@ -1654,7 +1894,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>238</v>
+        <v>278</v>
       </c>
     </row>
     <row r="81">
@@ -1662,7 +1902,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
     </row>
     <row r="82">
@@ -1670,7 +1910,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
     </row>
     <row r="83">
@@ -1678,7 +1918,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
     </row>
     <row r="84">
@@ -1686,7 +1926,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
     </row>
     <row r="85">
@@ -1694,7 +1934,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
     </row>
     <row r="86">
@@ -1702,7 +1942,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
     </row>
     <row r="87">
@@ -1710,7 +1950,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
     </row>
     <row r="88">
@@ -1718,7 +1958,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
     </row>
     <row r="89">
@@ -1726,7 +1966,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>247</v>
+        <v>287</v>
       </c>
     </row>
     <row r="90">
@@ -1734,7 +1974,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
     </row>
     <row r="91">
@@ -1742,7 +1982,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
     </row>
     <row r="92">
@@ -1750,7 +1990,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
     </row>
     <row r="93">
@@ -1758,7 +1998,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
     </row>
     <row r="94">
@@ -1766,7 +2006,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>252</v>
+        <v>292</v>
       </c>
     </row>
     <row r="95">
@@ -1774,7 +2014,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
     </row>
     <row r="96">
@@ -1782,7 +2022,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
     </row>
     <row r="97">
@@ -1790,7 +2030,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>255</v>
+        <v>295</v>
       </c>
     </row>
     <row r="98">
@@ -1798,7 +2038,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
     </row>
     <row r="99">
@@ -1806,7 +2046,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
     </row>
     <row r="100">
@@ -1814,7 +2054,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
     </row>
     <row r="101">
@@ -1822,7 +2062,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
     </row>
     <row r="102">
@@ -1830,7 +2070,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
     </row>
     <row r="103">
@@ -1838,7 +2078,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>261</v>
+        <v>301</v>
       </c>
     </row>
     <row r="104">
@@ -1846,7 +2086,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
     </row>
     <row r="105">
@@ -1854,7 +2094,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>263</v>
+        <v>303</v>
       </c>
     </row>
     <row r="106">
@@ -1862,7 +2102,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
     </row>
     <row r="107">
@@ -1870,7 +2110,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
     </row>
     <row r="108">
@@ -1878,7 +2118,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
     </row>
     <row r="109">
@@ -1886,7 +2126,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
     </row>
     <row r="110">
@@ -1894,7 +2134,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
     </row>
     <row r="111">
@@ -1902,7 +2142,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
     </row>
     <row r="112">
@@ -1910,7 +2150,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
     </row>
     <row r="113">
@@ -1918,7 +2158,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
     </row>
     <row r="114">
@@ -1926,7 +2166,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
     </row>
     <row r="115">
@@ -1934,7 +2174,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
     </row>
     <row r="116">
@@ -1942,7 +2182,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
     </row>
     <row r="117">
@@ -1950,7 +2190,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
     </row>
     <row r="118">
@@ -1958,7 +2198,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
     </row>
     <row r="119">
@@ -1966,7 +2206,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
     </row>
     <row r="120">
@@ -1974,7 +2214,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
     </row>
     <row r="121">
@@ -1982,7 +2222,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
     </row>
     <row r="122">
@@ -1990,7 +2230,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
     </row>
     <row r="123">
@@ -1998,7 +2238,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
     </row>
     <row r="124">
@@ -2006,7 +2246,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
     </row>
     <row r="125">
@@ -2014,7 +2254,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
     </row>
     <row r="126">
@@ -2022,7 +2262,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
     </row>
     <row r="127">
@@ -2030,7 +2270,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
     </row>
     <row r="128">
@@ -2038,7 +2278,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
     </row>
     <row r="129">
@@ -2046,7 +2286,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
     </row>
     <row r="130">
@@ -2054,7 +2294,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
     </row>
     <row r="131">
@@ -2062,7 +2302,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
     </row>
     <row r="132">
@@ -2070,7 +2310,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
     </row>
     <row r="133">
@@ -2078,7 +2318,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
     </row>
     <row r="134">
@@ -2086,7 +2326,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
     </row>
     <row r="135">
@@ -2094,7 +2334,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
     </row>
     <row r="136">
@@ -2102,7 +2342,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
     </row>
     <row r="137">
@@ -2110,7 +2350,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
     </row>
     <row r="138">
@@ -2118,7 +2358,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
     </row>
     <row r="139">
@@ -2126,7 +2366,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
     </row>
     <row r="140">
@@ -2134,7 +2374,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
     </row>
     <row r="141">
@@ -2142,7 +2382,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
     </row>
     <row r="142">
@@ -2150,7 +2390,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
     </row>
     <row r="143">
@@ -2158,7 +2398,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
     </row>
     <row r="144">
@@ -2166,7 +2406,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
     </row>
     <row r="145">
@@ -2174,7 +2414,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
     </row>
     <row r="146">
@@ -2182,7 +2422,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
     </row>
     <row r="147">
@@ -2190,7 +2430,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
     </row>
     <row r="148">
@@ -2198,7 +2438,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
     </row>
     <row r="149">
@@ -2206,7 +2446,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
     </row>
     <row r="150">
@@ -2214,7 +2454,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
     </row>
     <row r="151">
@@ -2222,7 +2462,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
     </row>
     <row r="152">
@@ -2230,7 +2470,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
     </row>
     <row r="153">
@@ -2238,7 +2478,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
     </row>
     <row r="154">
@@ -2246,7 +2486,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
     </row>
     <row r="155">
@@ -2254,7 +2494,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
     </row>
     <row r="156">
@@ -2262,7 +2502,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
     </row>
     <row r="157">
@@ -2270,7 +2510,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
     </row>
     <row r="158">
@@ -2278,7 +2518,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
     </row>
     <row r="159">
@@ -2286,7 +2526,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
     </row>
     <row r="160">
@@ -2294,7 +2534,327 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>318</v>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/epl_match_urls.xlsx
+++ b/epl_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="543">
   <si>
     <t>x</t>
   </si>
@@ -614,6 +614,222 @@
     <t>199</t>
   </si>
   <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/cc5b4244/Manchester-United-Fulham-August-16-2024-Premier-League</t>
   </si>
   <si>
@@ -1209,6 +1425,222 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/56c4250a/Wolverhampton-Wanderers-Nottingham-Forest-January-6-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/68c2e6b8/Brentford-Manchester-City-January-14-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c6168c73/West-Ham-United-Fulham-January-14-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fff671a9/Chelsea-Bournemouth-January-14-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/118f8df8/Nottingham-Forest-Liverpool-January-14-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3e70b855/Everton-Aston-Villa-January-15-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/535d70d7/Newcastle-United-Wolverhampton-Wanderers-January-15-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/99eb6105/Leicester-City-Crystal-Palace-January-15-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ee9ce5e2/North-London-Derby-Arsenal-Tottenham-Hotspur-January-15-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ace86fcc/Ipswich-Town-Brighton-and-Hove-Albion-January-16-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f443a602/Manchester-United-Southampton-January-16-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/99d11a39/Newcastle-United-Bournemouth-January-18-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/03ac4a9c/West-Ham-United-Crystal-Palace-January-18-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5e8445c1/Brentford-Liverpool-January-18-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bc3ae18e/Leicester-City-Fulham-January-18-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1fdaaaba/Arsenal-Aston-Villa-January-18-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/45028d5b/Manchester-United-Brighton-and-Hove-Albion-January-19-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e0f90407/Nottingham-Forest-Southampton-January-19-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e9f61cb0/Everton-Tottenham-Hotspur-January-19-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6c829b8f/Ipswich-Town-Manchester-City-January-19-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e62cfa12/Chelsea-Wolverhampton-Wanderers-January-20-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0b39252e/Wolverhampton-Wanderers-Arsenal-January-25-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7d05223b/Southampton-Newcastle-United-January-25-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b54aac79/Brighton-and-Hove-Albion-Everton-January-25-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ee59115f/Liverpool-Ipswich-Town-January-25-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/efa8ddd7/Bournemouth-Nottingham-Forest-January-25-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bfd54040/Manchester-City-Chelsea-January-25-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/68d6e8fe/Crystal-Palace-Brentford-January-26-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8226bca2/Tottenham-Hotspur-Leicester-City-January-26-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bb05246c/Aston-Villa-West-Ham-United-January-26-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/eb14e391/Fulham-Manchester-United-January-26-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/897ab235/Nottingham-Forest-Brighton-and-Hove-Albion-February-1-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1098cac0/Ipswich-Town-Southampton-February-1-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/475670fb/Everton-Leicester-City-February-1-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5ec3f48b/Newcastle-United-Fulham-February-1-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/886603cd/Bournemouth-Liverpool-February-1-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/693ab427/Wolverhampton-Wanderers-Aston-Villa-February-1-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7193a229/Brentford-Tottenham-Hotspur-February-2-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/83dba981/Manchester-United-Crystal-Palace-February-2-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2906e921/Arsenal-Manchester-City-February-2-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ed7df9b1/Chelsea-West-Ham-United-February-3-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/92627434/Merseyside-Derby-Everton-Liverpool-February-12-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ed780e1d/Brighton-and-Hove-Albion-Chelsea-February-14-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/af8aa0dd/Leicester-City-Arsenal-February-15-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/06fee8c4/Aston-Villa-Ipswich-Town-February-15-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5968d7ad/Fulham-Nottingham-Forest-February-15-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/79406a7e/West-Ham-United-Brentford-February-15-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8c51fa01/Manchester-City-Newcastle-United-February-15-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ce3da486/Southampton-Bournemouth-February-15-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/35ee3617/Crystal-Palace-Everton-February-15-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6a917c79/Liverpool-Wolverhampton-Wanderers-February-16-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/09db2a2f/Tottenham-Hotspur-Manchester-United-February-16-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/39c7b656/Aston-Villa-Liverpool-February-19-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/da5a149a/Leicester-City-Brentford-February-21-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e5b45c4d/Everton-Manchester-United-February-22-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7289bcdf/Fulham-Crystal-Palace-February-22-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7853cd1a/Ipswich-Town-Tottenham-Hotspur-February-22-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ccdda6d3/Bournemouth-Wolverhampton-Wanderers-February-22-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e511e91c/Arsenal-West-Ham-United-February-22-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e757bea1/Southampton-Brighton-and-Hove-Albion-February-22-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5109d405/Aston-Villa-Chelsea-February-22-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/93caf0bc/Newcastle-United-Nottingham-Forest-February-23-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e51a316b/Manchester-City-Liverpool-February-23-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0a97629a/Crystal-Palace-Aston-Villa-February-25-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7aecfc4c/Wolverhampton-Wanderers-Fulham-February-25-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fade9277/Brighton-and-Hove-Albion-Bournemouth-February-25-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/21d4a457/Chelsea-Southampton-February-25-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1218933c/Brentford-Everton-February-26-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3b8160bd/Tottenham-Hotspur-Manchester-City-February-26-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bf6aa8ee/Manchester-United-Ipswich-Town-February-26-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d4387bc1/Nottingham-Forest-Arsenal-February-26-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a0975f8c/Liverpool-Newcastle-United-February-26-2025-Premier-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/08b1b7de/West-Ham-United-Leicester-City-February-27-2025-Premier-League</t>
   </si>
 </sst>
 </file>
@@ -1270,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3">
@@ -1278,7 +1710,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4">
@@ -1286,7 +1718,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5">
@@ -1294,7 +1726,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6">
@@ -1302,7 +1734,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7">
@@ -1310,7 +1742,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8">
@@ -1318,7 +1750,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>206</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9">
@@ -1326,7 +1758,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>207</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10">
@@ -1334,7 +1766,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>208</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11">
@@ -1342,7 +1774,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>209</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12">
@@ -1350,7 +1782,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>210</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13">
@@ -1358,7 +1790,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>211</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14">
@@ -1366,7 +1798,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>212</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15">
@@ -1374,7 +1806,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>213</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16">
@@ -1382,7 +1814,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>214</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17">
@@ -1390,7 +1822,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>215</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18">
@@ -1398,7 +1830,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>216</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19">
@@ -1406,7 +1838,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>217</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20">
@@ -1414,7 +1846,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>218</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21">
@@ -1422,7 +1854,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>219</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22">
@@ -1430,7 +1862,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>220</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23">
@@ -1438,7 +1870,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>221</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24">
@@ -1446,7 +1878,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>222</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25">
@@ -1454,7 +1886,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>223</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26">
@@ -1462,7 +1894,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>224</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27">
@@ -1470,7 +1902,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>225</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28">
@@ -1478,7 +1910,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>226</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29">
@@ -1486,7 +1918,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>227</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30">
@@ -1494,7 +1926,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>228</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1934,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>229</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32">
@@ -1510,7 +1942,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>230</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33">
@@ -1518,7 +1950,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>231</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34">
@@ -1526,7 +1958,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>232</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35">
@@ -1534,7 +1966,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>233</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36">
@@ -1542,7 +1974,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37">
@@ -1550,7 +1982,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38">
@@ -1558,7 +1990,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>236</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39">
@@ -1566,7 +1998,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>237</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40">
@@ -1574,7 +2006,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>238</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +2014,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>239</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42">
@@ -1590,7 +2022,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>240</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43">
@@ -1598,7 +2030,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>241</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44">
@@ -1606,7 +2038,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>242</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45">
@@ -1614,7 +2046,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>243</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46">
@@ -1622,7 +2054,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>244</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47">
@@ -1630,7 +2062,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>245</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48">
@@ -1638,7 +2070,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>246</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49">
@@ -1646,7 +2078,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>247</v>
+        <v>319</v>
       </c>
     </row>
     <row r="50">
@@ -1654,7 +2086,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>248</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51">
@@ -1662,7 +2094,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>249</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52">
@@ -1670,7 +2102,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>250</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53">
@@ -1678,7 +2110,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>251</v>
+        <v>323</v>
       </c>
     </row>
     <row r="54">
@@ -1686,7 +2118,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>252</v>
+        <v>324</v>
       </c>
     </row>
     <row r="55">
@@ -1694,7 +2126,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>253</v>
+        <v>325</v>
       </c>
     </row>
     <row r="56">
@@ -1702,7 +2134,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>254</v>
+        <v>326</v>
       </c>
     </row>
     <row r="57">
@@ -1710,7 +2142,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>255</v>
+        <v>327</v>
       </c>
     </row>
     <row r="58">
@@ -1718,7 +2150,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>256</v>
+        <v>328</v>
       </c>
     </row>
     <row r="59">
@@ -1726,7 +2158,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>257</v>
+        <v>329</v>
       </c>
     </row>
     <row r="60">
@@ -1734,7 +2166,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>258</v>
+        <v>330</v>
       </c>
     </row>
     <row r="61">
@@ -1742,7 +2174,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>259</v>
+        <v>331</v>
       </c>
     </row>
     <row r="62">
@@ -1750,7 +2182,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>260</v>
+        <v>332</v>
       </c>
     </row>
     <row r="63">
@@ -1758,7 +2190,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>261</v>
+        <v>333</v>
       </c>
     </row>
     <row r="64">
@@ -1766,7 +2198,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>262</v>
+        <v>334</v>
       </c>
     </row>
     <row r="65">
@@ -1774,7 +2206,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>263</v>
+        <v>335</v>
       </c>
     </row>
     <row r="66">
@@ -1782,7 +2214,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>264</v>
+        <v>336</v>
       </c>
     </row>
     <row r="67">
@@ -1790,7 +2222,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>265</v>
+        <v>337</v>
       </c>
     </row>
     <row r="68">
@@ -1798,7 +2230,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>266</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69">
@@ -1806,7 +2238,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>267</v>
+        <v>339</v>
       </c>
     </row>
     <row r="70">
@@ -1814,7 +2246,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>268</v>
+        <v>340</v>
       </c>
     </row>
     <row r="71">
@@ -1822,7 +2254,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>269</v>
+        <v>341</v>
       </c>
     </row>
     <row r="72">
@@ -1830,7 +2262,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>270</v>
+        <v>342</v>
       </c>
     </row>
     <row r="73">
@@ -1838,7 +2270,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>271</v>
+        <v>343</v>
       </c>
     </row>
     <row r="74">
@@ -1846,7 +2278,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>272</v>
+        <v>344</v>
       </c>
     </row>
     <row r="75">
@@ -1854,7 +2286,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>273</v>
+        <v>345</v>
       </c>
     </row>
     <row r="76">
@@ -1862,7 +2294,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>274</v>
+        <v>346</v>
       </c>
     </row>
     <row r="77">
@@ -1870,7 +2302,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>275</v>
+        <v>347</v>
       </c>
     </row>
     <row r="78">
@@ -1878,7 +2310,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>276</v>
+        <v>348</v>
       </c>
     </row>
     <row r="79">
@@ -1886,7 +2318,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>277</v>
+        <v>349</v>
       </c>
     </row>
     <row r="80">
@@ -1894,7 +2326,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>278</v>
+        <v>350</v>
       </c>
     </row>
     <row r="81">
@@ -1902,7 +2334,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>279</v>
+        <v>351</v>
       </c>
     </row>
     <row r="82">
@@ -1910,7 +2342,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>280</v>
+        <v>352</v>
       </c>
     </row>
     <row r="83">
@@ -1918,7 +2350,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
     </row>
     <row r="84">
@@ -1926,7 +2358,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>282</v>
+        <v>354</v>
       </c>
     </row>
     <row r="85">
@@ -1934,7 +2366,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>283</v>
+        <v>355</v>
       </c>
     </row>
     <row r="86">
@@ -1942,7 +2374,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>284</v>
+        <v>356</v>
       </c>
     </row>
     <row r="87">
@@ -1950,7 +2382,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>285</v>
+        <v>357</v>
       </c>
     </row>
     <row r="88">
@@ -1958,7 +2390,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>286</v>
+        <v>358</v>
       </c>
     </row>
     <row r="89">
@@ -1966,7 +2398,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>287</v>
+        <v>359</v>
       </c>
     </row>
     <row r="90">
@@ -1974,7 +2406,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>288</v>
+        <v>360</v>
       </c>
     </row>
     <row r="91">
@@ -1982,7 +2414,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>289</v>
+        <v>361</v>
       </c>
     </row>
     <row r="92">
@@ -1990,7 +2422,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>290</v>
+        <v>362</v>
       </c>
     </row>
     <row r="93">
@@ -1998,7 +2430,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>291</v>
+        <v>363</v>
       </c>
     </row>
     <row r="94">
@@ -2006,7 +2438,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>292</v>
+        <v>364</v>
       </c>
     </row>
     <row r="95">
@@ -2014,7 +2446,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>293</v>
+        <v>365</v>
       </c>
     </row>
     <row r="96">
@@ -2022,7 +2454,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>294</v>
+        <v>366</v>
       </c>
     </row>
     <row r="97">
@@ -2030,7 +2462,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>295</v>
+        <v>367</v>
       </c>
     </row>
     <row r="98">
@@ -2038,7 +2470,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>296</v>
+        <v>368</v>
       </c>
     </row>
     <row r="99">
@@ -2046,7 +2478,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>297</v>
+        <v>369</v>
       </c>
     </row>
     <row r="100">
@@ -2054,7 +2486,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>298</v>
+        <v>370</v>
       </c>
     </row>
     <row r="101">
@@ -2062,7 +2494,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>299</v>
+        <v>371</v>
       </c>
     </row>
     <row r="102">
@@ -2070,7 +2502,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>300</v>
+        <v>372</v>
       </c>
     </row>
     <row r="103">
@@ -2078,7 +2510,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>301</v>
+        <v>373</v>
       </c>
     </row>
     <row r="104">
@@ -2086,7 +2518,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>302</v>
+        <v>374</v>
       </c>
     </row>
     <row r="105">
@@ -2094,7 +2526,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>303</v>
+        <v>375</v>
       </c>
     </row>
     <row r="106">
@@ -2102,7 +2534,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>304</v>
+        <v>376</v>
       </c>
     </row>
     <row r="107">
@@ -2110,7 +2542,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>305</v>
+        <v>377</v>
       </c>
     </row>
     <row r="108">
@@ -2118,7 +2550,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>306</v>
+        <v>378</v>
       </c>
     </row>
     <row r="109">
@@ -2126,7 +2558,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>307</v>
+        <v>379</v>
       </c>
     </row>
     <row r="110">
@@ -2134,7 +2566,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>308</v>
+        <v>380</v>
       </c>
     </row>
     <row r="111">
@@ -2142,7 +2574,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>309</v>
+        <v>381</v>
       </c>
     </row>
     <row r="112">
@@ -2150,7 +2582,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>310</v>
+        <v>382</v>
       </c>
     </row>
     <row r="113">
@@ -2158,7 +2590,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>311</v>
+        <v>383</v>
       </c>
     </row>
     <row r="114">
@@ -2166,7 +2598,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>312</v>
+        <v>384</v>
       </c>
     </row>
     <row r="115">
@@ -2174,7 +2606,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>313</v>
+        <v>385</v>
       </c>
     </row>
     <row r="116">
@@ -2182,7 +2614,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>314</v>
+        <v>386</v>
       </c>
     </row>
     <row r="117">
@@ -2190,7 +2622,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>315</v>
+        <v>387</v>
       </c>
     </row>
     <row r="118">
@@ -2198,7 +2630,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>316</v>
+        <v>388</v>
       </c>
     </row>
     <row r="119">
@@ -2206,7 +2638,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>317</v>
+        <v>389</v>
       </c>
     </row>
     <row r="120">
@@ -2214,7 +2646,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>318</v>
+        <v>390</v>
       </c>
     </row>
     <row r="121">
@@ -2222,7 +2654,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>319</v>
+        <v>391</v>
       </c>
     </row>
     <row r="122">
@@ -2230,7 +2662,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>320</v>
+        <v>392</v>
       </c>
     </row>
     <row r="123">
@@ -2238,7 +2670,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>321</v>
+        <v>393</v>
       </c>
     </row>
     <row r="124">
@@ -2246,7 +2678,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="125">
@@ -2254,7 +2686,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>323</v>
+        <v>395</v>
       </c>
     </row>
     <row r="126">
@@ -2262,7 +2694,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>324</v>
+        <v>396</v>
       </c>
     </row>
     <row r="127">
@@ -2270,7 +2702,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>325</v>
+        <v>397</v>
       </c>
     </row>
     <row r="128">
@@ -2278,7 +2710,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>326</v>
+        <v>398</v>
       </c>
     </row>
     <row r="129">
@@ -2286,7 +2718,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>327</v>
+        <v>399</v>
       </c>
     </row>
     <row r="130">
@@ -2294,7 +2726,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>328</v>
+        <v>400</v>
       </c>
     </row>
     <row r="131">
@@ -2302,7 +2734,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>329</v>
+        <v>401</v>
       </c>
     </row>
     <row r="132">
@@ -2310,7 +2742,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>330</v>
+        <v>402</v>
       </c>
     </row>
     <row r="133">
@@ -2318,7 +2750,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>331</v>
+        <v>403</v>
       </c>
     </row>
     <row r="134">
@@ -2326,7 +2758,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>332</v>
+        <v>404</v>
       </c>
     </row>
     <row r="135">
@@ -2334,7 +2766,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>333</v>
+        <v>405</v>
       </c>
     </row>
     <row r="136">
@@ -2342,7 +2774,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>334</v>
+        <v>406</v>
       </c>
     </row>
     <row r="137">
@@ -2350,7 +2782,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>335</v>
+        <v>407</v>
       </c>
     </row>
     <row r="138">
@@ -2358,7 +2790,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
     </row>
     <row r="139">
@@ -2366,7 +2798,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>337</v>
+        <v>409</v>
       </c>
     </row>
     <row r="140">
@@ -2374,7 +2806,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>338</v>
+        <v>410</v>
       </c>
     </row>
     <row r="141">
@@ -2382,7 +2814,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>339</v>
+        <v>411</v>
       </c>
     </row>
     <row r="142">
@@ -2390,7 +2822,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>340</v>
+        <v>412</v>
       </c>
     </row>
     <row r="143">
@@ -2398,7 +2830,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>341</v>
+        <v>413</v>
       </c>
     </row>
     <row r="144">
@@ -2406,7 +2838,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>342</v>
+        <v>414</v>
       </c>
     </row>
     <row r="145">
@@ -2414,7 +2846,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>343</v>
+        <v>415</v>
       </c>
     </row>
     <row r="146">
@@ -2422,7 +2854,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>344</v>
+        <v>416</v>
       </c>
     </row>
     <row r="147">
@@ -2430,7 +2862,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>345</v>
+        <v>417</v>
       </c>
     </row>
     <row r="148">
@@ -2438,7 +2870,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>346</v>
+        <v>418</v>
       </c>
     </row>
     <row r="149">
@@ -2446,7 +2878,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>347</v>
+        <v>419</v>
       </c>
     </row>
     <row r="150">
@@ -2454,7 +2886,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>348</v>
+        <v>420</v>
       </c>
     </row>
     <row r="151">
@@ -2462,7 +2894,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>349</v>
+        <v>421</v>
       </c>
     </row>
     <row r="152">
@@ -2470,7 +2902,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>350</v>
+        <v>422</v>
       </c>
     </row>
     <row r="153">
@@ -2478,7 +2910,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>351</v>
+        <v>423</v>
       </c>
     </row>
     <row r="154">
@@ -2486,7 +2918,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>352</v>
+        <v>424</v>
       </c>
     </row>
     <row r="155">
@@ -2494,7 +2926,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>353</v>
+        <v>425</v>
       </c>
     </row>
     <row r="156">
@@ -2502,7 +2934,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>354</v>
+        <v>426</v>
       </c>
     </row>
     <row r="157">
@@ -2510,7 +2942,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>355</v>
+        <v>427</v>
       </c>
     </row>
     <row r="158">
@@ -2518,7 +2950,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>356</v>
+        <v>428</v>
       </c>
     </row>
     <row r="159">
@@ -2526,7 +2958,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>357</v>
+        <v>429</v>
       </c>
     </row>
     <row r="160">
@@ -2534,7 +2966,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>358</v>
+        <v>430</v>
       </c>
     </row>
     <row r="161">
@@ -2542,7 +2974,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>359</v>
+        <v>431</v>
       </c>
     </row>
     <row r="162">
@@ -2550,7 +2982,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>360</v>
+        <v>432</v>
       </c>
     </row>
     <row r="163">
@@ -2558,7 +2990,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>361</v>
+        <v>433</v>
       </c>
     </row>
     <row r="164">
@@ -2566,7 +2998,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>362</v>
+        <v>434</v>
       </c>
     </row>
     <row r="165">
@@ -2574,7 +3006,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>363</v>
+        <v>435</v>
       </c>
     </row>
     <row r="166">
@@ -2582,7 +3014,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>364</v>
+        <v>436</v>
       </c>
     </row>
     <row r="167">
@@ -2590,7 +3022,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>365</v>
+        <v>437</v>
       </c>
     </row>
     <row r="168">
@@ -2598,7 +3030,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>366</v>
+        <v>438</v>
       </c>
     </row>
     <row r="169">
@@ -2606,7 +3038,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>367</v>
+        <v>439</v>
       </c>
     </row>
     <row r="170">
@@ -2614,7 +3046,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>368</v>
+        <v>440</v>
       </c>
     </row>
     <row r="171">
@@ -2622,7 +3054,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>369</v>
+        <v>441</v>
       </c>
     </row>
     <row r="172">
@@ -2630,7 +3062,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>370</v>
+        <v>442</v>
       </c>
     </row>
     <row r="173">
@@ -2638,7 +3070,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>371</v>
+        <v>443</v>
       </c>
     </row>
     <row r="174">
@@ -2646,7 +3078,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>372</v>
+        <v>444</v>
       </c>
     </row>
     <row r="175">
@@ -2654,7 +3086,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>373</v>
+        <v>445</v>
       </c>
     </row>
     <row r="176">
@@ -2662,7 +3094,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>374</v>
+        <v>446</v>
       </c>
     </row>
     <row r="177">
@@ -2670,7 +3102,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>375</v>
+        <v>447</v>
       </c>
     </row>
     <row r="178">
@@ -2678,7 +3110,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>376</v>
+        <v>448</v>
       </c>
     </row>
     <row r="179">
@@ -2686,7 +3118,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>377</v>
+        <v>449</v>
       </c>
     </row>
     <row r="180">
@@ -2694,7 +3126,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>378</v>
+        <v>450</v>
       </c>
     </row>
     <row r="181">
@@ -2702,7 +3134,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>379</v>
+        <v>451</v>
       </c>
     </row>
     <row r="182">
@@ -2710,7 +3142,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>380</v>
+        <v>452</v>
       </c>
     </row>
     <row r="183">
@@ -2718,7 +3150,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>381</v>
+        <v>453</v>
       </c>
     </row>
     <row r="184">
@@ -2726,7 +3158,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>382</v>
+        <v>454</v>
       </c>
     </row>
     <row r="185">
@@ -2734,7 +3166,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>383</v>
+        <v>455</v>
       </c>
     </row>
     <row r="186">
@@ -2742,7 +3174,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>384</v>
+        <v>456</v>
       </c>
     </row>
     <row r="187">
@@ -2750,7 +3182,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>385</v>
+        <v>457</v>
       </c>
     </row>
     <row r="188">
@@ -2758,7 +3190,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>386</v>
+        <v>458</v>
       </c>
     </row>
     <row r="189">
@@ -2766,7 +3198,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>387</v>
+        <v>459</v>
       </c>
     </row>
     <row r="190">
@@ -2774,7 +3206,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>388</v>
+        <v>460</v>
       </c>
     </row>
     <row r="191">
@@ -2782,7 +3214,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>389</v>
+        <v>461</v>
       </c>
     </row>
     <row r="192">
@@ -2790,7 +3222,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>390</v>
+        <v>462</v>
       </c>
     </row>
     <row r="193">
@@ -2798,7 +3230,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>391</v>
+        <v>463</v>
       </c>
     </row>
     <row r="194">
@@ -2806,7 +3238,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>392</v>
+        <v>464</v>
       </c>
     </row>
     <row r="195">
@@ -2814,7 +3246,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>393</v>
+        <v>465</v>
       </c>
     </row>
     <row r="196">
@@ -2822,7 +3254,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>394</v>
+        <v>466</v>
       </c>
     </row>
     <row r="197">
@@ -2830,7 +3262,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>395</v>
+        <v>467</v>
       </c>
     </row>
     <row r="198">
@@ -2838,7 +3270,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>396</v>
+        <v>468</v>
       </c>
     </row>
     <row r="199">
@@ -2846,7 +3278,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>397</v>
+        <v>469</v>
       </c>
     </row>
     <row r="200">
@@ -2854,7 +3286,583 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>398</v>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>542</v>
       </c>
     </row>
   </sheetData>
